--- a/examples/Canada OGD/post secondary students/profile.xlsx
+++ b/examples/Canada OGD/post secondary students/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,26 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>592936</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>592936</v>
+      </c>
+      <c r="U2" t="n">
         <v>2</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['1', '2']</t>
         </is>
@@ -578,18 +595,26 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>University</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>9783444</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>2</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['College (include Cegep)', 'University']</t>
         </is>
@@ -648,18 +673,26 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>60001000</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>24029000</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
         <v>4743488</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>274</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['10001000', '10020000', '11001000', '12001000', '12002000', '12003000', '12004000', '12005000', '12006000', '12007000', '12008000', '12010000', '12011000', '12012000', '12022000', '13002000', '13003000', '13004000', '13005000', '13016001', '24001001', '24002001', '24002005', '24003001', '24003002', '24003003', '24005000', '24006000', '24007000', '24008000', '24009000', '24010000', '24011000', '24012000', '24013000', '24014000', '24015000', '24016000', '24017000', '24020000', '24021000', '24022000', '24023000', '24024000', '24025000', '24026000', '24027000', '24028000', '24029000', '24030000', '24031000', '24032000', '24033000', '24034000', '24035000', '24036001', '24036002', '24036003', '24037000', '24038000', '24039000', '24040000', '24041000', '24042000', '24043000', '24044000', '24045000', '24046000', '24047000', '24048000', '24049000', '24050000', '24051000', '24052000', '24053000', '24054000', '24055000', '24056000', '24057000', '24058000', '24059000', '24060000', '24061000', '24062000', '24063000', '24064000', '24065000', '24068000', '24070000', '24071000', '24072000', '24074000', '24076000', '24077000', '24080000', '24081000', '24082000', '24083000', '24087000', '24089000', '24090000', '24092000', '24093000', '24094000', '24127000', '24128000', '24136000', '24137001', '24137002', '24143000', '24160000', '24400000', '24410000', '24659000', '24700000', '24715000', '24716000', '24717000', '24718000', '24719000', '24720000', '24721000', '24722000', '24723000', '24724000', '24725000', '35001001', '35001002', '35001004', '35002001', '35003001', '35004001', '35004002', '35004003', '35004005', '35005001', '35005003', '35006001', '35006002', '35006003', '35006007', '35007001', '35007002', '35007003', '35007004', '35008001', '35008002', '35008003', '35010001', '35010002', '35011001', '35011002', '35014001', '35015001', '35015002', '35015003', '35015014', '35016001', '35016002', '35017001', '35017002', '35017004', '35017006', '35017007', '35017008', '35018001', '35018002', '35018003', '35018004', '35019001', '35019002', '35019003', '35019004', '35020001', '35021001', '35022001', '35023001', '35024001', '35045001', '35046000', '35048000', '35054000', '35055000', '35058000', '35059000', '35062000', '35064000', '35065000', '35066000', '35067000', '35068000', '35073000', '35089002', '35089003', '46001000', '46002000', '46003000', '46005001', '46005002', '46005003', '46006000', '46009000', '46010000', '46016000', '46017000', '46018000', '46021000', '46023000', '47004000', '47005001', '47005002', '47005003', '47005004', '47005005', '47005007', '47005008', '47015000', '47017000', '47018000', '47020000', '47021000', '47025000', '47026000', '47030000', '48001001', '48002000', '48005000', '48007000', '48008000', '48009000', '48013000', '48014000', '48015000', '48016000', '48022000', '48023000', '48024000', '48026000', '48027000', '48028000', '48031000', '48032000', '48033000', '48034000', '48035000', '48146000', '48147000', '48148000', '59001001', '59001005', '59002000', '59005000', '59007000', '59023000', '59026000', '59027000', '59031000', '59032000', '59033000', '59034000', '59035000', '59036000', '59038000', '59043000', '59045000', '59048001', '59048004', '59049000', '59050000', '59051000', '59052000', '59053000', '59054000', '60001000']</t>
         </is>
@@ -718,18 +751,26 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>fcole des hautes Ztudes commerciales</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Collge d'enseignement gZnZral et professionnel (CfGEP) de Thetford</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>22014372</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>274</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['Acadia University - Parent Institution', 'Alberta College of Art and Design', 'Algoma University', 'Algoma University College', 'Algonquin College of Applied Arts and Technology', 'Ambrose University College', 'Assiniboine Community College', 'Athabasca University', 'Atlantic School of Theology', "Bishop's University", 'Bow Valley College', 'Brandon University', 'Brescia College', 'British Columbia Institute of Technology', 'Brock College of Education', 'Brock University', 'Brock University - Hamilton Campus', 'CZgep rZgional de Lanaudire ^ LOAssomption', 'CZgep rZgional de Lanaudire ^ Terrebonne', 'Camosun College', 'Campus Notre-Dame-de-Foy', 'Canadian Mennonite University - Parent Institution', 'Canadian University College', 'Canadore College of Applied Arts and Technology', 'Cape Breton University', 'Capilano University', 'Carleton University', 'Carlton Trail Regional College', 'Centennial College of Applied Arts and Technology', 'Champlain Regional College - Lennoxville Campus', 'Champlain Regional College - St. Lambert Campus', 'Champlain Regional College - St. Lawrence Campus', "CitZ CollZgiale - Campus d'Ottawa", 'CollZgial international Sainte-Anne', 'College international Marie de France', 'College of New Caledonia', 'College of the North Atlantic - Parent Institution', 'College of the Rockies', 'Collge AndrZ-Grasset', 'Collge Bart', 'Collge Centennial / Centennial College', 'Collge Ellis, campus de Drummondville', 'Collge Ellis, campus de Trois-Rivires', 'Collge Heritage / Heritage College', 'Collge Jean-de-BrZbeuf', 'Collge Laflche', 'Collge Nouvelles Frontires', "Collge O'Sullivan de QuZbec / O'Sullivan College of Quebec", 'Collge Shawinigan', 'Collge Stanislas', 'Collge Vanier / Vanier College', "Collge d'Alma", "Collge d'enseignement gZnZral et professionnel (CfGEP) Ahuntsic", "Collge d'enseignement gZnZral et professionnel (CfGEP) AndrZ-Laurendeau", "Collge d'enseignement gZnZral et professionnel (CfGEP) Beauce-Appalaches", "Collge d'enseignement gZnZral et professionnel (CfGEP) Franois-Xavier Garneau", "Collge d'enseignement gZnZral et professionnel (CfGEP) GZrald-Godin", "Collge d'enseignement gZnZral et professionnel (CfGEP) Lionel-Groulx", "Collge d'enseignement gZnZral et professionnel (CfGEP) Marie-Victorin", "Collge d'enseignement gZnZral et professionnel (CfGEP) Montmorency", "Collge d'enseignement gZnZral et professionnel (CfGEP) Saint-Jean-sur-Richelieu", "Collge d'enseignement gZnZral et professionnel (CfGEP) d'Abitibi-TZmiscamingue", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Baie-Comeau", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Bois-de-Boulogne", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Chicoutimi", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Drummondville", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Granby-Haute-Yamaska", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Jonquire", "Collge d'enseignement gZnZral et professionnel (CfGEP) de LZvis-Lauzon", "Collge d'enseignement gZnZral et professionnel (CfGEP) de La Pocatire", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Limoilou", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Maisonneuve", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Matane", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Rimouski", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Rivire-du-Loup", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Rosemont", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Saint-Hyacinthe", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Saint-JZr(tm)me", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Saint-Laurent", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sainte-Foy", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sept-eles", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sherbrooke", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sorel-Tracy", "Collge d'enseignement gZnZral et professionnel (CfGEP) de St-FZlicien", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Thetford", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Trois-Rivires", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Valleyfield", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Victoriaville", "Collge d'enseignement gZnZral et professionnel (CfGEP) de l'Outaouais", "Collge d'enseignement gZnZral et professionnel (CfGEP) de la GaspZsie et des eles", "Collge d'enseignement gZnZral et professionnel (CfGEP) du Vieux MontrZal", "Collge d'enseignement gZnZral et professionnel (CfGEP) fdouard-Montpetit", "Collge d'enseignement gZnZral et professionnel (CfGEP) rZgional de Lanaudire ^ Joliette", 'Collge international des Marcellines', 'Concordia University', 'Concordia University College of Alberta', 'Conrad Grebel University College', 'Conservatoire Lasalle', 'Conservatoire de Musique de Gatineau', 'Conservatoire de musique de MontrZal', 'Conservatoire de musique de QuZbec', 'Conservatoire de musique de Rimouski', 'Conservatoire de musique de Saguenay', 'Conservatoire de musique de Trois-Rivires', "Conservatoire de musique de Val-d'Or", 'Cumberland Regional College', 'Dalhousie University', 'Dawson College', 'Dominican University College', 'Douglas College', 'Emily Carr University of Art and Design', 'Fanshawe College of Applied Arts and Technology', 'George Brown College of Applied Arts and Technology', 'Grande Prairie Regional College', 'Grant MacEwan University', 'Great Plains College', 'Horizon College and Seminary', 'Humber College of Applied Arts and Technology North Campus', 'Huron University College', 'Institut Teccart inc.', 'Institut de Technologie Agroalimentaire (La Pocatire)', 'Institut de Technologie Agroalimentaire (St-Hyacinthe)', "Institut de tourisme et d'h(tm)tellerie", 'Institut national de la recherche scientifique', 'John Abbott College', 'Keyano College', "King's College", 'Kwantlen Polytechnic University', "L'fcole Technique et Professionnelle", 'LaSalle College', 'Lakehead University', 'Lakehead University - Orillia Campus', 'Lakeland College - Parent Institution', 'Langara College', 'Laurentian University', 'Laurentian University - Off Campus Centres', 'Lethbridge College', 'Lutheran Theological Seminary', 'MacDonald College -McGill University', 'Marianopolis College', 'Maritime College of Forest Technology, Fredericton Campus', 'McGill University', 'McMaster Divinity College', 'McMaster University', 'McMaster University - Conestoga', 'McMaster University - Mohawk', 'Medicine Hat College', 'Memorial University of Newfoundland - Parent Institution', 'Merici College', 'Mohawk College of Applied Arts and Technology', 'Mount Allison University', 'Mount Royal University', 'Mount St. Vincent University', 'NSCAD University', 'National Circus School', 'Niagara College Canada', 'Nicola Valley Institute of Technology', 'Nipissing University', 'Nipissing University - Bracebridge Campus', 'Nipissing University - Brantford Campus', 'NorQuest College', 'North Island College', 'North West Regional College', 'Northern Alberta Institute of Technology', 'Northern Lakes College', 'Northern Lights Community College', 'Northern Ontario School of Medicine, East Campus', 'Northern Ontario School of Medicine, West Campus', 'Northlands College', 'Northwest Community College', 'Nova Scotia Agricultural College', 'Nova Scotia Community Colleges (NSCC) - Parent Institution', "O'Sullivan College of Montreal", 'Okanagan College', 'Olds College', 'Ontario College of Art and Design - University', 'Parkland Regional College', 'Portage College', 'Providence College and Seminary', "Queen's Theological College", "Queen's University", 'Red Deer College', 'Red River College - Parent Institution', 'Royal Roads University', 'Ryerson University', 'SZminaire de Sherbrooke', "Saint Andrew's College - University of Manitoba", "Saint Mary's University", 'Saint Paul University', "Saint Peter's College", 'Saskatchewan Institute of Applied Science and Technology (S.I.A.S.T.) - Parent Institution', 'Sault College of Applied Arts and Technology - Parent Institution', 'Selkirk College', 'Seneca College of Applied Arts and Technology', 'Sheridan College of Applied Arts and Technology', 'Simon Fraser University', 'Southeast Regional College', 'Southern Alberta Institute of Technology', 'St. Clair College of Applied Arts and Technology', 'St. Francis Xavier University - Parent Institution', "St. Jerome's University", 'St. Lawrence College of Applied Arts and Technology - Parent Institution', "St. Mary's University College", 'St. Thomas More College', 'St. Thomas University', 'Steinbach Bible College', 'TAV College', 'TZlZ-universitZ', 'Thompson Rivers University', 'Thompson Rivers University - Open Learning', 'Toronto School of Theology', 'Trent University', 'Trent University at Durham College/UOIT', "United Church St. Andrew's College", 'UniversitZ Laval', 'UniversitZ Sainte-Anne - Parent Institution', 'UniversitZ de Hearst', 'UniversitZ de Moncton - Parent Institution', 'UniversitZ de MontrZal', 'UniversitZ de Saint-Boniface', 'UniversitZ de Sherbrooke', 'UniversitZ du QuZbec ^ Chicoutimi', 'UniversitZ du QuZbec ^ MontrZal', 'UniversitZ du QuZbec ^ Rimouski', 'UniversitZ du QuZbec ^ Trois-Rivires', 'UniversitZ du QuZbec en Abitibi-TZmiscamingue', 'UniversitZ du QuZbec en Outaouais', "UniversitZ du QuZbec, fcole nationale d'administration publique - Parent Institution", 'University College of Emmanuel and St. Chad', 'University College of the North - Parent Institution', 'University of Alberta', 'University of British Columbia', 'University of British Columbia, Okanagan', 'University of Calgary', 'University of Guelph', 'University of Guelph - Humber Campus', 'University of Guelph - Kemptville College of Agricultural Technology', 'University of Guelph - Ridgetown College', "University of King's College", 'University of Lethbridge', 'University of Manitoba', 'University of New Brunswick - Parent Institution', 'University of Northern British Columbia - Parent institution', 'University of Ontario -  Institute of Technology', 'University of Ottawa', 'University of Prince Edward Island', 'University of Regina - Parent Institution', 'University of Saskatchewan', 'University of Toronto', 'University of Toronto Mississauga', 'University of Toronto Scarborough', 'University of Waterloo', 'University of Waterloo - Cambridge Campus', 'University of Waterloo - Kitchener Campus', 'University of Waterloo - Stratford Campus', 'University of Western Ontario', 'University of Windsor', 'University of Winnipeg - Parent Institution', 'University of the Fraser Valley', 'Vancouver Community College', 'Vancouver Island University', 'Waterloo Lutheran Seminary', 'Wilfrid Laurier University', 'Wilfrid Laurier University - Brantford Campus', 'Wilfrid Laurier University - Kitchener Campus', 'William and Catherine Booth Bible College', 'Winnipeg Technical College', 'York University', 'Yukon College', 'fcole Polytechnique', "fcole de Musique Vincent d'Indy", 'fcole de stZnographie judiciaire du QuZbec', 'fcole de technologie supZrieure', 'fcole des hautes Ztudes commerciales']</t>
         </is>
@@ -788,18 +829,26 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>TT.TTTT</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>51.2205</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
         <v>4040404</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>1082</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['1', '1.0101', '1.0102', '1.0103', '1.0104', '1.0105', '1.0201', '1.0205', '1.0301', '1.0302', '1.0303', '1.0304', '1.0306', '1.0307', '1.0399', '1.0401', '1.0507', '1.0599', '1.0601', '1.0603', '1.0604', '1.0605', '1.0606', '1.0607', '1.0608', '1.0699', '1.0701', '1.0801', '1.0901', '1.0903', '1.0906', '1.0999', '1.1001', '1.1002', '1.1099', '1.1101', '1.1102', '1.1103', '1.1104', '1.1105', '1.1106', '1.1199', '1.1201', '1.1299', '1.9999', '10.0105', '10.0201', '10.0202', '10.0203', '10.0299', '10.0301', '10.0302', '10.0303', '10.0304', '10.0305', '11.0101', '11.0102', '11.0103', '11.0199', '11.0201', '11.0202', '11.0203', '11.0299', '11.0301', '11.0401', '11.0501', '11.0601', '11.0701', '11.0801', '11.0802', '11.0803', '11.0899', '11.0901', '11.1001', '11.1002', '11.1003', '11.1004', '11.1099', '11.9999', '12.0301', '12.0302', '12.0401', '12.0406', '12.0407', '12.0409', '12.041', '12.0412', '12.0499', '12.05', '12.0501', '12.0502', '12.0503', '12.0504', '12.0505', '12.0506', '12.0507', '12.0508', '12.0599', '13.0101', '13.0203', '13.0301', '13.0401', '13.0406', '13.0407', '13.0501', '13.0601', '13.0604', '13.0701', '13.0901', '13.1001', '13.1003', '13.1004', '13.1006', '13.1007', '13.1009', '13.1011', '13.1012', '13.1013', '13.1015', '13.1101', '13.1199', '13.1201', '13.1202', '13.1203', '13.1205', '13.1206', '13.1209', '13.121', '13.1299', '13.1301', '13.1302', '13.1303', '13.1304', '13.1305', '13.1306', '13.1307', '13.1308', '13.1309', '13.1311', '13.1312', '13.1314', '13.1316', '13.1317', '13.1318', '13.132', '13.1321', '13.1322', '13.1323', '13.1324', '13.1325', '13.1326', '13.1327', '13.1328', '13.1329', '13.133', '13.1332', '13.1334', '13.1335', '13.1399', '13.1401', '13.1402', '13.1499', '13.1501', '13.1502', '13.1599', '13.9999', '14.0101', '14.0201', '14.0301', '14.0501', '14.0701', '14.0801', '14.0802', '14.0803', '14.0805', '14.0901', '14.0902', '14.0903', '14.0999', '14.1001', '14.1201', '14.1301', '14.1401', '14.1801', '14.1901', '14.2001', '14.2101', '14.2201', '14.2301', '14.2501', '14.2701', '14.3101', '14.3301', '14.3401', '14.3501', '14.3601', '14.3701', '14.3801', '14.3901', '14.9999', '15', '15.0101', '15.0201', '15.0303', '15.0304', '15.0305', '15.0399', '15.0401', '15.0403', '15.0404', '15.0405', '15.0499', '15.0501', '15.0503', '15.0506', '15.0507', '15.0508', '15.0599', '15.0607', '15.0611', '15.0612', '15.0613', '15.0699', '15.0701', '15.0702', '15.0703', '15.0704', '15.0799', '15.0801', '15.0803', '15.0805', '15.0899', '15.0901', '15.0903', '15.1001', '15.1102', '15.1201', '15.1202', '15.1204', '15.1299', '15.1301', '15.1302', '15.1303', '15.1304', '15.1306', '15.1399', '15.1401', '15.1501', '15.9999', '16.0101', '16.0102', '16.0103', '16.0104', '16.0199', '16.0201', '16.03', '16.0301', '16.0302', '16.0303', '16.0399', '16.04', '16.0402', '16.0407', '16.041', '16.0501', '16.0502', '16.0599', '16.0601', '16.09', '16.0902', '16.0904', '16.0905', '16.0907', '16.0999', '16.1001', '16.1101', '16.1103', '16.12', '16.1203', '16.1601', '16.1603', '16.1701', '16.1702', '16.1799', '16.9999', '19', '19.0101', '19.0201', '19.0203', '19.0401', '19.0402', '19.0501', '19.0504', '19.0505', '19.0601', '19.0604', '19.0605', '19.0701', '19.0702', '19.0704', '19.0706', '19.0707', '19.0708', '19.0709', '19.0799', '19.0901', '19.0902', '19.0904', '19.0905', '19.0906', '19.0999', '21.0101', '22', '22.0001', '22.0101', '22.0201', '22.0204', '22.0205', '22.0206', '22.0207', '22.0208', '22.0209', '22.0211', '22.0299', '22.0301', '22.0302', '22.0303', '22.0399', '22.9999', '23.0101', '23.0401', '23.0501', '23.1001', '23.1101', '23.9999', '24.0101', '24.0102', '24.0103', '24.0199', '25.0101', '25.0301', '25.9999', '26.0101', '26.0102', '26.0202', '26.0203', '26.0204', '26.0205', '26.0206', '26.0209', '26.021', '26.0299', '26.0301', '26.0401', '26.0403', '26.0404', '26.0406', '26.0407', '26.0499', '26.0502', '26.0503', '26.0505', '26.0507', '26.0599', '26.0701', '26.0702', '26.0707', '26.0708', '26.0709', '26.0801', '26.0802', '26.0806', '26.0901', '26.0904', '26.0905', '26.0906', '26.0907', '26.0908', '26.0909', '26.091', '26.0911', '26.0999', '26.1001', '26.1004', '26.1006', '26.1007', '26.1102', '26.1103', '26.1199', '26.1201', '26.1301', '26.1302', '26.1303', '26.1304', '26.1305', '26.1306', '26.1307', '26.1309', '26.1399', '26.9999', '27.0101', '27.0199', '27.0301', '27.0303', '27.0399', '27.0501', '27.0502', '27.9999', '29.0101', '3.0101', '3.0103', '3.0104', '3.0199', '3.0201', '3.0204', '3.0205', '3.0206', '3.0299', '3.0301', '3.0501', '3.0502', '3.0506', '3.0509', '3.051', '3.0511', '3.0599', '3.0601', '3.9999', '30.0101', '30.0501', '30.0601', '30.0801', '30.1001', '30.1101', '30.1201', '30.1202', '30.1301', '30.1401', '30.1501', '30.1601', '30.1701', '30.1801', '30.1901', '30.2001', '30.2201', '30.2202', '30.2301', '30.2401', '30.2501', '30.9999', '31.0101', '31.0301', '31.0501', '31.0504', '31.0505', '31.0599', '32.0101', '32.0105', '32.0107', '32.0108', '32.0109', '32.0199', '33.0104', '34.0102', '34.0199', '35.0101', '35.0103', '36.0101', '36.0102', '36.0108', '36.011', '36.0112', '36.0113', '36.0115', '36.0118', '36.0199', '37.0101', '37.0199', '38.0101', '38.0102', '38.0103', '38.0199', '38.0201', '38.0202', '38.0203', '38.0205', '38.0206', '38.0299', '38.9999', '39.0201', '39.0301', '39.0401', '39.0501', '39.0601', '39.0602', '39.0604', '39.0699', '39.0701', '39.0702', '39.0799', '39.9999', '4.0201', '4.0301', '4.0401', '4.0601', '4.0801', '4.0901', '40.0101', '40.0201', '40.0202', '40.0203', '40.0299', '40.0401', '40.0404', '40.0499', '40.0501', '40.0502', '40.0503', '40.0504', '40.0506', '40.0508', '40.0599', '40.0601', '40.0602', '40.0603', '40.0604', '40.0605', '40.0607', '40.0699', '40.0801', '40.0807', '40.0808', '40.081', '40.0899', '40.9999', '41.0101', '41.0205', '41.0301', '41.0399', '42.0101', '42.0201', '42.0301', '42.0401', '42.0501', '42.0601', '42.0701', '42.0801', '42.0901', '42.1001', '42.1101', '42.1601', '42.1701', '42.1801', '42.2001', '42.2201', '42.2501', '42.2601', '42.9999', '43.0102', '43.0103', '43.0104', '43.0106', '43.0107', '43.0109', '43.011', '43.0112', '43.0199', '43.0201', '43.0203', '43.9999', '44', '44.0201', '44.0401', '44.0501', '44.0701', '44.0702', '44.0799', '44.9999', '45.0101', '45.0201', '45.0202', '45.0299', '45.0301', '45.0401', '45.0501', '45.0601', '45.0602', '45.0603', '45.0604', '45.0605', '45.0699', '45.0701', '45.0702', '45.0799', '45.0901', '45.1001', '45.1003', '45.1099', '45.1101', '45.1201', '45.9999', '46', '46.0101', '46.0201', '46.0301', '46.0302', '46.0303', '46.0401', '46.0403', '46.0406', '46.0412', '46.0502', '46.0503', '46.0504', '46.0599', '46.9999', '47', '47.0101', '47.0103', '47.0104', '47.0105', '47.0106', '47.011', '47.0201', '47.0302', '47.0303', '47.0399', '47.0404', '47.0408', '47.0409', '47.0501', '47.0603', '47.0604', '47.0605', '47.0606', '47.0607', '47.0608', '47.0609', '47.0611', '47.0613', '47.0616', '47.0699', '47.9999', '48.0304', '48.0501', '48.0503', '48.0506', '48.0507', '48.0508', '48.0509', '48.0599', '48.0701', '48.0702', '48.0703', '48.0799', '48.0801', '49.0101', '49.0102', '49.0104', '49.0106', '49.0202', '49.0205', '49.0206', '49.0299', '49.0304', '49.0309', '49.0399', '5.0101', '5.0102', '5.0103', '5.0104', '5.0105', '5.0106', '5.0107', '5.0108', '5.0109', '5.011', '5.0111', '5.0112', '5.0114', '5.0115', '5.0119', '5.0122', '5.0123', '5.0124', '5.0125', '5.0126', '5.0127', '5.013', '5.0132', '5.0199', '5.0202', '5.0203', '5.0207', '5.0299', '5.9999', '50.0101', '50.0201', '50.0301', '50.0401', '50.0402', '50.0404', '50.0406', '50.0407', '50.0408', '50.0409', '50.041', '50.0499', '50.0501', '50.0502', '50.0504', '50.0505', '50.0506', '50.0507', '50.0508', '50.0599', '50.0601', '50.0602', '50.0605', '50.0699', '50.0701', '50.0702', '50.0703', '50.0704', '50.0705', '50.0706', '50.0708', '50.0709', '50.071', '50.0711', '50.0712', '50.0713', '50.0799', '50.0901', '50.0902', '50.0903', '50.0904', '50.0905', '50.0906', '50.0907', '50.0908', '50.0909', '50.091', '50.0911', '50.0912', '50.0999', '50.9999', '51', '51.0101', '51.0201', '51.0202', '51.0203', '51.0204', '51.0299', '51.0401', '51.0501', '51.0502', '51.0503', '51.0504', '51.0506', '51.0507', '51.0508', '51.0509', '51.051', '51.0511', '51.0599', '51.0601', '51.0602', '51.0603', '51.0701', '51.0702', '51.0703', '51.0705', '51.0706', '51.0707', '51.0708', '51.071', '51.0712', '51.0714', '51.0716', '51.0801', '51.0802', '51.0803', '51.0805', '51.0806', '51.0808', '51.0809', '51.081', '51.0811', '51.0812', '51.0899', '51.0901', '51.0902', '51.0903', '51.0904', '51.0905', '51.0906', '51.0907', '51.0908', '51.0909', '51.091', '51.0911', '51.0912', '51.0913', '51.0915', '51.0999', '51.1001', '51.1002', '51.1004', '51.1005', '51.1006', '51.101', '51.1099', '51.1101', '51.1102', '51.1103', '51.1104', '51.1105', '51.1199', '51.1201', '51.1401', '51.1501', '51.1502', '51.1504', '51.1505', '51.1506', '51.1508', '51.1509', '51.1599', '51.1601', '51.1602', '51.1604', '51.1605', '51.1606', '51.1607', '51.1608', '51.1609', '51.161', '51.1611', '51.1612', '51.1613', '51.1616', '51.1617', '51.1618', '51.1699', '51.1701', '51.1801', '51.1802', '51.1899', '51.2001', '51.2002', '51.2003', '51.2004', '51.2006', '51.2008', '51.2009', '51.2099', '51.2101', '51.2201', '51.2202', '51.2205', '51.2206', '51.2207', '51.2208', '51.221', '51.2211', '51.2299', '51.2301', '51.2305', '51.2306', '51.2307', '51.2308', '51.2309', '51.231', '51.2399', '51.2401', '51.2501', '51.2504', '51.2505', '51.2507', '51.2508', '51.251', '51.2599', '51.2601', '51.2602', '51.2699', '51.2706', '51.3101', '51.3102', '51.3103', '51.3201', '51.3301', '51.3399', '51.3401', '51.3499', '51.3501', '51.3602', '51.3702', '51.3704', '51.3799', '51.9999', '52.0101', '52.0201', '52.0202', '52.0203', '52.0204', '52.0205', '52.0206', '52.0207', '52.0208', '52.0209', '52.0299', '52.0301', '52.0302', '52.0303', '52.0304', '52.0305', '52.0399', '52.0401', '52.0402', '52.0407', '52.0408', '52.0409', '52.041', '52.0411', '52.0499', '52.0501', '52.0601', '52.0701', '52.0703', '52.0799', '52.0801', '52.0803', '52.0804', '52.0806', '52.0807', '52.0808', '52.0809', '52.0899', '52.0901', '52.0903', '52.0904', '52.0905', '52.0906', '52.0999', '52.1001', '52.1002', '52.1003', '52.1004', '52.1005', '52.1099', '52.1101', '52.1201', '52.1206', '52.1207', '52.1299', '52.1301', '52.1302', '52.1304', '52.1399', '52.1401', '52.1402', '52.1403', '52.1499', '52.1501', '52.1601', '52.1701', '52.1801', '52.1802', '52.1803', '52.1804', '52.1902', '52.1904', '52.1905', '52.1906', '52.1907', '52.1908', '52.1909', '52.191', '52.1999', '52.2001', '52.9999', '53.0101', '53.0102', '53.0103', '53.0105', '53.0201', '54.0101', '54.0103', '54.0104', '54.0105', '54.0107', '54.0199', '55.0101', '55.0301', '55.0401', '55.0501', '55.0601', '55.0801', '55.9999', '60.0101', '60.0199', '60.0202', '60.0203', '60.0204', '60.0205', '60.0206', '60.0207', '60.0209', '60.021', '60.0211', '60.0212', '60.0213', '60.0214', '60.0215', '60.0216', '60.0217', '60.0218', '60.022', '60.0221', '60.0222', '60.0224', '60.0225', '60.0227', '60.0228', '60.0229', '60.0231', '60.0232', '60.0233', '60.0234', '60.0235', '60.0236', '60.0237', '60.0238', '60.0239', '60.024', '60.0241', '60.0242', '60.0243', '60.0244', '60.0245', '60.0246', '60.0247', '60.0248', '60.025', '60.0251', '60.0252', '60.0253', '60.0255', '60.0256', '60.0257', '60.0258', '60.026', '60.0261', '60.0262', '60.0263', '60.0264', '60.0266', '60.0268', '60.027', '60.0299', '89.9991', '89.9992', '9.0101', '9.0102', '9.0199', '9.0401', '9.0402', '9.0404', '9.0499', '9.0701', '9.0702', '9.0799', '9.0901', '9.0902', '9.0903', '9.0904', '9.0905', '9.0999', '9.1001', '9.9999', 'TT.TTTT']</t>
         </is>
@@ -858,18 +907,26 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Zoology/Animal Biology, General</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Ecology</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>21171432</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>1082</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['Aboriginal Education', 'Aboriginal Languages, Literatures and Linguistics', 'Aboriginal Studies', 'Aboriginal and Foreign Language Teacher Education', 'Aboriginal and Foreign Languages and Literatures, General', 'Aboriginal and Foreign Languages, Literatures and Linguistics, Other', 'Accounting', 'Accounting Technology/Technician and Bookkeeping', 'Accounting and Business/Management', 'Accounting and Computer Science', 'Accounting and Finance', 'Accounting and Related Services, Other', 'Acting', 'Actuarial Science', 'Acupuncture', 'Administrative Assistant and Secretarial Science, General', 'Adult Development and Aging', 'Adult High School/Secondary Diploma Programs', 'Adult Literacy Tutor/Instructor', 'Adult and Continuing Education and Teaching', 'Advanced General Dentistry (Cert., MSc, PhD)', 'Advanced Legal Research/Studies, General (LLM, MCL, MLI, MSL, JSD/SJD)', 'Advanced/Graduate Dentistry and Oral Sciences (Cert., MSc, PhD), Other', 'Advertising', 'Aeronautical/Aerospace Engineering Technology/Technician', 'Aeronautics/Aviation/Aerospace Science and Technology, General', 'Aerospace, Aeronautical and Astronautical Engineering', 'Aesthetician/Esthetician and Skin Care Specialist', 'African Languages, Literatures and Linguistics', 'African Studies', 'Agribusiness/Agricultural Business Operations', 'Agricultural Business and Management, General', 'Agricultural Economics', 'Agricultural Mechanics and Equipment/Machine Technology', 'Agricultural Mechanization, General', 'Agricultural Production Operations, General', 'Agricultural Production Operations, Other', 'Agricultural Teacher Education', 'Agricultural and Domestic Animal Services, Other', 'Agricultural and Extension Education Services', 'Agricultural and Food Products Processing', 'Agricultural and Horticultural Plant Breeding', 'Agricultural/Biological Engineering and Bioengineering', 'Agricultural/Farm Supplies Retailing and Wholesaling', 'Agriculture, Agriculture Operations and Related Sciences, Other', 'Agriculture, General', 'Agronomy and Crop Science', 'Aircraft Powerplant Technology/Technician', 'Airframe Mechanics and Aircraft Maintenance Technology/Technician', 'Airline Flight Attendant', 'Airline/Commercial/Professional Pilot and Flight Crew', 'Allergies and Immunology Residency Programs', 'Allied Health Diagnostic, Intervention and Treatment Professions, Other', 'Allied Health and Medical Assisting Services, Other', 'Alternative and Complementary Medical Support Services, Other', 'Alternative and Complementary Medicine and Medical Systems, Other', 'American Sign Language (ASL)', 'American/United States Studies/Civilization', 'Analytical Chemistry', 'Anatomy', 'Ancient Near Eastern and Biblical Languages, Literatures and Linguistics', 'Ancient Studies/Civilization', 'Anesthesiologist Assistant', 'Anesthesiology Residency Programs', 'Animal Behaviour and Ethology', 'Animal Health', 'Animal Physiology', 'Animal Sciences, General', 'Animal Sciences, Other', 'Animal/Livestock Husbandry and Production', 'Animation, Interactive Technology, Video Graphics and Special Effects', 'Anthropology, General', 'Anthropology, Other', 'Apparel and Accessories Marketing Operations', 'Apparel and Textile Manufacture', 'Apparel and Textile Marketing Management', 'Apparel and Textiles, General', 'Apparel and Textiles, Other', 'Appliance Installation and Repair Technology/Technician', 'Applied Economics', 'Applied Horticulture/Horticultural Business Services, Other', 'Applied Horticulture/Horticulture Operations, General', 'Applied Mathematics, General', 'Applied Mathematics, Other', 'Aquaculture', 'Aquatic Biology/Limnology', 'Arabic Language and Literature', 'Archeology', 'Architectural Drafting and Architectural CAD/CADD', 'Architectural Engineering Technology/Technician', 'Architectural History and Criticism', 'Architectural Technology/Technician', 'Architecture (BArch, BA/BSc, MArch, MA/MSc, PhD)', 'Area Studies, Other', 'Area, Ethnic, Cultural and Gender Studies, Other', 'Art (not for credit)', 'Art History, Criticism and Conservation', 'Art Teacher Education', 'Art Therapy/Therapist', 'Art/Art Studies, General', 'Artificial Intelligence and Robotics', 'Arts Management', 'Asian Studies/Civilization', 'Astronomy', 'Astronomy and Astrophysics, Other', 'Astrophysics', 'Athletic Training/Trainer', 'Atmospheric Sciences and Meteorology, General', 'Atmospheric Sciences and Meteorology, Other', 'Audiology/Audiologist and Hearing Sciences', 'Audiology/Audiologist and Speech-language Pathology/Pathologist', 'Audiovisual Communications Technologies/Technicians, Other', 'Auditing', 'Autobody/Collision and Repair Technology/Technician', 'Automobile/Automotive Mechanics Technology/Technician', 'Automotive Engineering Technology/Technician', 'Aviation/Airway Management and Operations', 'Avionics Maintenance Technology/Technician', 'Baking and Pastry Arts/Baker/Pastry Chef', 'Banking and Financial Support Services', 'Banking, Corporate, Finance and Securities Law (LLM, JSD/SJD)', 'Bartending/Bartender', 'Basic Skills, General', 'Basic Skills, Other', 'Behavioural Sciences', 'Bible/Biblical Studies', 'Biochemistry', 'Biochemistry/Biophysics and Molecular Biology, Integrated', 'Biochemistry/Biophysics and Molecular Biology, Other', 'Bioethics/Medical Ethics', 'Bioinformatics', 'Biological and Biomedical Sciences, Other', 'Biological and Physical Sciences', 'Biology Teacher Education', 'Biology Technician/Biotechnology Laboratory Technician', 'Biology/Biological Sciences, General', 'Biomathematics and Bioinformatics, Other', 'Biomedical Sciences, General', 'Biomedical Technology/Technician', 'Biomedical/Medical Engineering', 'Biophysics', 'Biopsychology', 'Biostatistics', 'Biotechnology', 'Birthing and Parenting Knowledge and Skills', 'Blood Bank Technology Specialist', 'Blood Banking Residency Programs', 'Boilermaking/Boilermaker', 'Botany/Plant Biology, General', 'Broadcast Journalism', 'Buddhist Studies', 'Building/Construction Site Management/Manager', 'Building/Home/Construction Inspection/Inspector', 'Building/Property Maintenance and Management', 'Business Administration and Management, General', 'Business Administration, Management and Operations, Other', 'Business Operations Support and Assistant Services, Other', 'Business Statistics', 'Business Teacher Education', 'Business and Personal/Financial Services Marketing Operations', 'Business and Social Skills', 'Business, Family and Consumer Sciences/Human Sciences', 'Business, Management, Marketing and Related Support Services, Other', 'Business/Commerce, General', 'Business/Corporate Communications', 'Business/Managerial Economics', 'Business/Office Automation/Technology/Data Entry', 'CAD/CADD Drafting and/or Design Technology/Technician', 'Cabinetmaking and Millwork', 'Canadian Government and Politics', 'Canadian History', 'Canadian Law/Legal Studies/Jurisprudence (LLM, MCJ, JSD/SJD)', 'Canadian Studies', 'Cardiology Residency Programs', 'Cardiopulmonary Technology/Technologist', 'Cardiovascular Science', 'Cardiovascular Technology/Technologist', 'Career Exploration/Awareness Skills', 'Caribbean Studies', 'Carpentry/Carpenter', 'Cartography', 'Catalan Language and Literature', 'Cell Biology and Anatomy', 'Cell/Cellular Biology and Anatomical Sciences, Other', 'Cell/Cellular Biology and Histology', 'Cell/Cellular and Molecular Biology', 'Central/Middle and Eastern European Studies', 'Ceramic Arts and Ceramics', 'Chemical Engineering', 'Chemical Pathology Residency Programs', 'Chemical Physics', 'Chemical Technology/Technician', 'Chemistry Teacher Education', 'Chemistry, General', 'Chemistry, Other', 'Child Care Provider/Assistant', 'Child Care and Support Services Management', 'Child Development', 'Child Neurology Residency Programs', 'Child/Pediatric Neurology Residency Programs', 'Chinese Language and Literature', 'Chinese Studies', 'Chiropractic (DC)', 'Christian Studies', 'Cinematography and Film/Video Production', 'City/Urban, Community and Regional Planning', 'Civil Drafting and Civil Engineering CAD/CADD', 'Civil Engineering Technology/Technician', 'Civil Engineering, General', 'Classical, Ancient Mediterranean and Near Eastern Studies and Archeology', 'Classics and Classical Languages, Literatures and Linguistics, General', 'Clinical Child Psychology', 'Clinical Laboratory Science/Medical Technology/Technologist', 'Clinical Nurse Specialist', 'Clinical Nutrition/Nutritionist', 'Clinical Pastoral Counselling/Patient Counselling', 'Clinical Psychology', 'Clinical and Industrial Drug Development (MSc, PhD)', 'Clinical, Hospital and Managed Care Pharmacy (MSc, PhD)', 'Clinical/Medical Laboratory Assistant', 'Clinical/Medical Laboratory Science and Allied Professions, Other', 'Clinical/Medical Laboratory Technician', 'Cognitive Psychology and Psycholinguistics', 'Cognitive Science', 'College/University Preparatory and Advanced High School/Secondary Diploma Programs', 'Colon and Rectal Surgery Residency Programs', 'Commercial Photography', 'Commercial and Advertising Art', 'Communication Disorders Sciences and Services, Other', 'Communication Disorders, General', 'Communication Studies/Speech Communication and Rhetoric', 'Communication and Media Studies, Other', 'Communication, Journalism and Related Programs, Other', 'Communications Systems Installation and Repair Technology', 'Communications Technology/Technician', 'Community College and General and Vocational College (CEGEP) Administration', 'Community Health Services/Liaison/Counselling', 'Community Health and Preventive Medicine', 'Community Involvement', 'Community Organization and Advocacy', 'Community Psychology', 'Comparative Law (LLM, MCL, JSD/SJD)', 'Comparative Literature', 'Comparative Psychology', 'Computational Mathematics', 'Computer Engineering Technologies/Technicians, Other', 'Computer Engineering Technology/Technician, General', 'Computer Engineering, General', 'Computer Engineering, Other', 'Computer Games and Programming Skills', 'Computer Graphics', 'Computer Hardware Engineering', 'Computer Installation and Repair Technology/Technician', 'Computer Programming, Other', 'Computer Programming, Specific Applications', 'Computer Programming, Vendor/Product Certification', 'Computer Programming/Programmer, General', 'Computer Science', 'Computer Software Engineering', 'Computer Software Technology/Technician', 'Computer Software and Media Applications, Other', 'Computer Systems Analysis/Analyst', 'Computer Systems Networking and Telecommunications', 'Computer Teacher Education', 'Computer Technology/Computer Systems Technology', 'Computer and Information Sciences and Support Services, General, Other', 'Computer and Information Sciences and Support Services, Other', 'Computer and Information Sciences, General', 'Computer and Information Systems Security', 'Computer/Information Technology Administration and Management, Other', 'Conducting', 'Conservation Biology', 'Construction Engineering', 'Construction Engineering Technology/Technician', 'Construction Management', 'Construction Trades, General', 'Construction Trades, Other', 'Construction/Heavy Equipment/Earthmoving Equipment Operation', 'Consumer Economics', 'Consumer Merchandising/Retailing Management', 'Cooking and Other Domestic Skills', 'Cooking and Related Culinary Arts, General', 'Corrections', 'Cosmetology and Related Personal Grooming Services, Other', 'Cosmetology/Cosmetologist, General', 'Counselling Psychology', 'Counsellor Education/School Counselling and Guidance Services', 'Court Reporting/Court Reporter', 'Crafts/Craft Design, Folk Art and Artisanry', 'Credit Management', 'Criminal Justice and Corrections, Other', 'Criminal Justice/Law Enforcement Administration', 'Criminal Justice/Police Science', 'Criminal Justice/Safety Studies', 'Criminology', 'Critical Care Anesthesiology Residency Programs', 'Critical Care Medicine Residency Programs', 'Critical Care Nursing', 'Critical Care Surgery Residency Programs', 'Crop Production', 'Culinary Arts and Related Services, Other', 'Culinary Arts/Chef Training', 'Cultural Resource Management and Policy Analysis', 'Curriculum and Instruction', 'Customer Service Management', 'Customer Service Support/Call Centre/Teleservice Operation', 'Cytogenetics/Genetics/Clinical Genetics Technology/Technologist', 'Cytotechnology/Cytotechnologist', 'Dairy Husbandry and Production', 'Dance, General', 'Data Entry/Microcomputer Applications, General', 'Data Modelling/Warehousing and Database Administration', 'Data Processing and Data Processing Technology/Technician', 'Demography and Population Studies', 'Dental Assisting/Assistant', 'Dental Clinical Sciences, General (MSc, PhD)', 'Dental Hygiene/Hygienist', 'Dental Laboratory Technology/Technician', 'Dental Public Health and Education (Cert., MSc, MPH, PhD, DPH)', 'Dental Residency Programs, Other', 'Dental/Oral Surgery Specialty Residency Programs', 'Dentistry (DDS, DMD)', 'Dermatology Residency Programs', 'Dermatopathology Residency Programs', 'Design and Applied Arts, Other', 'Design and Visual Communications, General', 'Development Economics and International Development', 'Developmental Biology and Embryology', 'Developmental and Child Psychology', 'Diagnostic Medical Sonography/Sonographer and Ultrasound Technician', 'Diagnostic Radiology Residency Programs', 'Diesel Mechanics Technology/Technician', 'Dietetic Technician (DTR)', 'Dietetics/Dietitian (RD)', 'Digital Communication and Media/Multimedia', 'Direct Entry Midwifery (LM, CPM)', 'Directing and Theatrical Production', 'Diver, Professional and Instructor', 'Divinity/Ministry (BDiv, MDiv)', 'Drafting and Design Technology/Technician, General', 'Drafting/Design Engineering Technologies/Technicians, Other', 'Drama and Dance Teacher Education', 'Drama and Dramatics/Theatre Arts, General', 'Drama/Theatre Arts and Stagecraft, Other', 'Drawing', 'Driver and Safety Teacher Education', 'E-commerce/Electronic Commerce', 'Early Childhood Education and Teaching', 'East Asian Languages, Literatures and Linguistics, General', 'East Asian Languages, Literatures and Linguistics, Other', 'East Asian Studies', 'Ecology', 'Ecology, Evolution, Systematics and Population Biology, Other', 'Econometrics and Quantitative Economics', 'Economics, General', 'Economics, Other', 'Education, General', 'Education, Other', 'Education/Teaching of Individuals in Early Childhood Special Education Programs', 'Education/Teaching of Individuals with Autism', 'Education/Teaching of Individuals with Hearing Impairments Including Deafness', 'Education/Teaching of Individuals with Multiple Disabilities', 'Education/Teaching of Individuals with Specific Learning Disabilities', 'Education/Teaching of Individuals with Speech or Language Impairments', 'Education/Teaching of Individuals with Vision Impairments Including Blindness', 'Education/Teaching of Intellectually-impaired Individuals', 'Education/Teaching of the Gifted and Talented', 'Educational Assessment, Testing and Measurement', 'Educational Evaluation and Research', 'Educational Leadership and Administration, General', 'Educational Psychology', 'Educational/Instructional Media Design', 'Electrical and Electronic Engineering Technologies/Technicians, Other', 'Electrical and Power Transmission Installation/Installer, General', 'Electrical, Electronic and Communications Engineering Technology/Technician', 'Electrical, Electronics and Communications Engineering', 'Electrical/Electronics Equipment Installation and Repair, General', 'Electrician', 'Electrocardiograph Technology/Technician', 'Electromechanical Technology/Electromechanical Engineering Technology', 'Electromechanical and Instrumentation and Maintenance Technologies/Technicians, Other', 'Electroneurodiagnostic/Electroencephalographic Technology/Technologist', 'Elementary Education and Teaching', 'Emergency Care Attendant (EMT Ambulance)', 'Emergency Medical Technology/Technician (EMT Paramedic)', 'Emergency Medicine Residency Programs', 'Endocrinology', 'Endocrinology and Metabolism Residency Programs', 'Endodontics/Endodontology (Cert., MSc, PhD)', 'Energy Management and Systems Technology/Technician', 'Energy, Environment and Natural Resources Law (LLM, MSc, JSD/SJD)', 'Energy-based and Biologically-based Therapies, Other', 'Engineering Physics', 'Engineering Science', 'Engineering Technologies/Technicians, Other', 'Engineering Technology, General', 'Engineering, General', 'Engineering, Other', 'Engineering/Industrial Management', 'English Composition', 'English Creative Writing', 'English Language and Literature, General', 'English Language and Literature/Letters, Other', 'English Speech and Rhetorical Studies', 'English Technical and Business Writing', 'English as a Second Language', 'English/English Language Arts Teacher Education', 'Entomology', 'Entrepreneurial and Small Business Operations, Other', 'Entrepreneurship/Entrepreneurial Studies', 'Environmental Biology', 'Environmental Control Technologies/Technicians, Other', 'Environmental Design/Architecture', 'Environmental Engineering Technology/Environmental Technology', 'Environmental Health', 'Environmental Science', 'Environmental Studies', 'Environmental Toxicology', 'Environmental/Environmental Health Engineering', 'Epidemiology', 'Equestrian/Equine Studies', 'Ethics', 'Ethnic, Cultural Minority and Gender Studies, Other', 'European History', 'European Studies/Civilization', 'Evolutionary Biology', 'Executive Assistant/Executive Secretary', 'Exercise Physiology', 'Experimental Psychology', 'Facilities Planning and Management', 'Family Medicine Residency Programs', 'Family Practice Nurse/Nurse Practitioner', 'Family Psychology', 'Family Resource Management Studies, General', 'Family Systems', 'Family and Community Services', 'Family and Consumer Sciences/Home Economics Teacher Education', 'Family and Consumer Sciences/Human Sciences, General', 'Farm/Farm and Ranch Management', 'Fashion Merchandising', 'Fashion and Fabric Consultant', 'Fashion/Apparel Design', 'Fibre, Textile and Weaving Arts', 'Film/Cinema Studies', 'Film/Video and Photographic Arts, Other', 'Finance and Financial Management Services, Other', 'Finance, General', 'Financial Planning and Services', 'Fine Arts and Art Studies, Other', 'Fine/Studio Arts, General', 'Fire Protection and Safety Technology/Technician', 'Fire Science/Firefighting', 'Fishing and Fisheries Sciences and Management', 'Floriculture/Floristry Operations and Management', 'Food Preparation/Professional Cooking/Kitchen Assistant', 'Food Science', 'Food Science and Technology, Other', 'Food Service, Waiter/Waitress and Dining Room Management/Manager', 'Food Technology and Processing', 'Foods, Nutrition and Wellness Studies, General', 'Foodservice Systems Administration/Management', 'Forensic Psychology', 'Forensic Science and Technology', 'Forest Engineering', 'Forest Management/Forest Resources Management', 'Forest Resources Production and Management', 'Forest Sciences and Biology', 'Forest Technology/Technician', 'Forestry, General', 'Forestry, Other', 'French Canadian Literature', 'French Composition', 'French Creative Writing', 'French Language and Literature, General', 'French Language and Literature/Letters, Other', 'French Language/French Language Arts Teacher Education', 'French Literature (France and the French Community)', 'French Studies', 'French Technical and Business Writing', 'French as a Second Language', 'Funeral Direction/Service', 'Funeral Service and Mortuary Science, General', 'Furniture Design and Manufacturing', 'Gastroenterology Residency Programs', 'General Office Occupations and Clerical Services', 'General Studies', 'General Surgery Residency Programs', 'Genetic Counselling/Counsellor', 'Genetics, General', 'Geochemistry', 'Geography', 'Geography Teacher Education', 'Geography and Cartography, Other', 'Geological and Earth Sciences/Geosciences, Other', 'Geological/Geophysical Engineering', 'Geology/Earth Science, General', 'Geophysics and Seismology', 'Geotechnical Engineering', 'Geriatric Medicine (Internal Medicine) Residency Programs', 'Geriatric Medicine Residency Programs', 'German Language Teacher Education', 'German Language and Literature', 'German Studies', 'Germanic Languages, Literatures and Linguistics, Other', 'Gerontology', 'Geropsychology', 'Glazier', 'Graphic Communications, General', 'Graphic Design', 'Graphic and Printing Equipment Operator, General Production', 'Greenhouse Operations and Management', 'Ground Transportation, Other', 'Hair Styling/Stylist and Hair Design', 'Handicrafts and Model-making', 'Hazardous Materials Information Systems Technology/Technician', 'Hazardous Materials Management and Waste Technology/Technician', 'Health Aide', 'Health Aides/Attendants/Orderlies, Other', 'Health Communication', 'Health Information/Medical Records Administration/Administrator', 'Health Information/Medical Records Technology/Technician', 'Health Law (LLM, MJ, JSD/SJD)', 'Health Occupations Teacher Education', 'Health Professions and Related Clinical Sciences, Other', 'Health Services Administration', 'Health Services/Allied Health/Health Sciences, General', 'Health Teacher Education', 'Health Unit Coordinator/Ward Clerk', 'Health and Physical Education, General', 'Health and Physical Education/Fitness, Other', 'Health-related Knowledge and Skills, Other', 'Health/Health Care Administration/Management', 'Health/Medical Physics', 'Health/Medical Preparatory Programs, Other', 'Heating, Air Conditioning and Refrigeration Technology/Technician (ACH/ACR/ACHR/HRAC/HVAC/AC Technology)', 'Heating, Air Conditioning, Ventilation and Refrigeration Maintenance Technology/Technician (HAC, HACR, HVAC, HVACR)', 'Heavy Equipment Maintenance Technology/Technician', 'Heavy/Industrial Equipment Maintenance Technologies, Other', 'Hematological Pathology Residency Programs', 'Hematology Residency Programs', 'Herbalism/Herbalist', 'High School Equivalence Certificate Programs', 'Higher Education/Higher Education Administration', 'Hispanic American, Puerto Rican and Mexican American/Chicano Studies', 'Historic Preservation and Conservation, General', 'History Teacher Education', 'History and Philosophy of Science and Technology', 'History, General', 'History, Other', 'Home Furnishings and Equipment Installers', 'Home Health Aide/Home Attendant', 'Horse Husbandry/Equine Science and Management', 'Horticultural Science', 'Hospital and Health Care Facilities Administration/Management', 'Hospitality Administration/Management, General', 'Hospitality Administration/Management, Other', 'Hospitality and Recreation Marketing Operations', 'Hotel/Motel Administration/Management', 'Housing and Human Environments, General', 'Human Development and Family Studies, General', 'Human Development, Family Studies and Related Services, Other', 'Human Nutrition', 'Human Resources Development', 'Human Resources Management and Services, Other', 'Human Resources Management/Personnel Administration, General', 'Human Services, General', 'Human/Medical Genetics', 'Humanities/Humanistic Studies', 'Hydrology and Water Resources Science', 'Illustration', 'Immunology', 'Industrial Design', 'Industrial Electronics Technology/Technician', 'Industrial Engineering', 'Industrial Mechanics and Maintenance Technology', 'Industrial Production Technologies/Technicians, Other', 'Industrial Safety Technology/Technician', 'Industrial Technology/Technician', 'Industrial and Organizational Psychology', 'Industrial and Physical Pharmacy and Cosmetic Sciences (MSc, PhD)', 'Infectious Disease Residency Programs', 'Information Resources Management/Chief Information Officer (CIO) Training', 'Information Science/Studies', 'Information Technology', 'Inorganic Chemistry', 'Institutional Food Workers', 'Instructional program not applicable', 'Instructional program not reported', 'Instrumentation Technology/Technician', 'Insurance', 'Intercultural/Multicultural and Diversity Studies', 'Interior Design', 'Intermedia/Multimedia', 'Internal Medicine Residency Programs', 'International Agriculture', 'International Business/Trade/Commerce', 'International Economics', 'International Finance', 'International Law and Legal Studies (LLM, JSD/SJD)', 'International Marketing', 'International Public Health/International Health', 'International Relations and Affairs', 'International and Comparative Education', 'International/Global Studies', 'Interpersonal and Social Skills, General', 'Investments and Securities', 'Ironworking/Ironworker', 'Islamic Studies', 'Italian Language and Literature', 'Italian Studies', 'Japanese Language and Literature', 'Japanese Studies', 'Jazz/Jazz Studies', 'Jewish/Judaic Studies', 'Job-seeking/Changing Skills', 'Journalism, General', 'Journalism, Other', 'Junior High/Intermediate/Middle School Education and Teaching', 'Juvenile Corrections', 'Kindergarten/Preschool Education and Teaching', 'Kinesiology and Exercise Science', 'Knowledge Management', 'Korean Language and Literature', 'Laboratory Medicine Residency Programs', 'Labour Studies', 'Labour and Industrial Relations', 'Land Use Planning and Management/Development', 'Landscape Architecture (BSc, BSLA, BLA, MSLA, MLA, PhD)', 'Landscaping and Groundskeeping', 'Language Interpretation and Translation', 'Large Animal/Food Animal and Equine Surgery and Medicine (Cert., MSc, PhD)', 'Laser and Optical Technology/Technician', 'Latin American Studies', 'Latin Language and Literature', 'Law (LLB, JD, BCL)', 'Legal Administrative Assistant/Secretary', 'Legal Assistant/Paralegal', 'Legal Professions and Studies, Other', 'Legal Research and Advanced Professional Studies (Post-LLB/JD), Other', 'Legal Studies, General', 'Legal Support Services, Other', 'Leisure and Recreational Activities, General', 'Leisure and Recreational Activities, Other', 'Liberal Arts and Sciences, General Studies and Humanities, Other', 'Liberal Arts and Sciences/Liberal Studies', 'Library Assistant/Technician', 'Library Science, Other', 'Library Science/Librarianship', 'Licensed Practical/Vocational Nurse Training (LPN, LVN, Cert., Dipl., AAS)', 'Lineworker', 'Linguistic, Comparative and Related Language Studies and Services, Other', 'Linguistics', 'Literacy and Communication Skills', 'Livestock Management', 'Logic', 'Logistics and Materials Management', 'Machine Shop Technology/Assistant', 'Machine Tool Technology/Machinist', 'Makeup Artist/Specialist', 'Management Information Systems and Services, Other', 'Management Information Systems, General', 'Management Science, General', 'Management Sciences and Quantitative Methods, Other', 'Manufacturing Engineering', 'Manufacturing Technology/Technician', 'Marine Biology and Biological Oceanography', 'Marine Maintenance/Fitter and Ship Repair Technology/Technician', 'Marine Transportation, Other', 'Marketing Research', 'Marketing, Other', 'Marketing/Marketing Management, General', 'Marriage and Family Therapy/Counselling', 'Masonry/Mason', 'Mass Communication/Media Studies', 'Massage Therapy/Therapeutic Massage', 'Materials Engineering', 'Materials Science', 'Maternal/Child Health and Neonatal Nurse/Nursing', 'Mathematical Statistics and Probability', 'Mathematics Teacher Education', 'Mathematics and Computer Science', 'Mathematics and Statistics, Other', 'Mathematics, General', 'Mathematics, Other', 'Meat Cutting/Meat Cutter', 'Mechanic and Repair Technologies/Technicians, Other', 'Mechanical Drafting and Mechanical Drafting CAD/CADD', 'Mechanical Engineering', 'Mechanical Engineering Related Technologies/Technicians, Other', 'Mechanical Engineering/Mechanical Technology/Technician', 'Mechanics and Repairers, General', 'Medical Administrative/Executive Assistant and Medical Secretary', 'Medical Informatics', 'Medical Insurance Specialist/Medical Biller', 'Medical Microbiology and Bacteriology', 'Medical Office Assistant/Specialist', 'Medical Office Management/Administration', 'Medical Radiologic Technology/Science D Radiation Therapist', 'Medical Reception/Receptionist', 'Medical Residency Programs, Other', 'Medical Scientist (MSc, PhD)', 'Medical Transcription/Transcriptionist', 'Medical/Clinical Assistant', 'Medicinal and Pharmaceutical Chemistry (MSc, PhD)', 'Medicine (MD)', 'Medieval and Renaissance Studies', 'Medium/Heavy Vehicle and Truck Technology/Technician', 'Mental Health Counselling/Counsellor', 'Mental and Social Health Services and Allied Professions, Other', 'Merchandising and Buying Operations', 'Metal and Jewellery Arts', 'Metallurgical Engineering', 'Metallurgical Technology/Technician', 'Meteorology', 'Microbiological Sciences and Immunology, Other', 'Microbiology, General', 'Military Technologies', 'Mining Technology/Technician', 'Mining and Mineral Engineering', 'Missions/Missionary Studies and Missiology', 'Mobile Crane Operation/Operator', 'Modern Greek Language and Literature', 'Molecular Biochemistry', 'Molecular Biology', 'Molecular Biophysics', 'Molecular Genetics', 'Motorcycle Maintenance and Repair Technology/Technician', 'Multidisciplinary/Interdisciplinary Studies, Other', 'Museology/Museum Studies', 'Music (not for credit)', 'Music History, Literature and Theory', 'Music Management and Merchandising', 'Music Pedagogy', 'Music Performance, General', 'Music Teacher Education', 'Music Theory and Composition', 'Music Therapy/Therapist', 'Music, General', 'Music, Other', 'Musical Instrument Fabrication and Repair', 'Musicology and Ethnomusicology', 'Nail Technician/Specialist and Manicurist', 'Natural Resource Economics', 'Natural Resources Conservation and Research, Other', 'Natural Resources Management and Policy, General', 'Natural Resources Management and Policy, Other', 'Natural Resources and Conservation, Other', 'Natural Resources/Conservation, General', 'Natural Sciences', 'Nautical Science/Merchant Marine Officer', 'Naval Architecture and Marine Engineering', 'Near and Middle Eastern Studies', 'Neonatal-Perinatal Medicine Residency Programs', 'Nephrology Residency Programs', 'Neurobiology and Neurophysiology', 'Neurological Surgery/Neurosurgery Residency Programs', 'Neurology Residency Programs', 'Neuropathology Residency Programs', 'Neuroscience', 'Non-profit/Public/Organizational Management', 'Nuclear Engineering', 'Nuclear Engineering Technology/Technician', 'Nuclear Medical Technology/Technologist', 'Nuclear Medicine Residency Programs', 'Nuclear Radiology Residency Programs', 'Nuclear/Nuclear Power Technology/Technician', 'Nurse Anesthetist', 'Nurse Midwife/Nursing Midwifery', 'Nursing Administration (MScN, MSc, PhD)', 'Nursing Science (MSc, PhD)', 'Nursing, Other', 'Nursing/Registered Nurse (RN, ASN, BScN, MScN)', 'Nutrition Sciences', 'Obstetrics and Gynecology Residency Programs', 'Occupational Health and Industrial Hygiene', 'Occupational Medicine Residency Programs', 'Occupational Safety and Health Technology/Technician', 'Occupational Therapist Assistant', 'Occupational Therapy/Therapist', 'Occupational and Environmental Health Nursing', 'Oceanography, Chemical and Physical', 'Office Management and Supervision', 'Oncology Residency Programs', 'Oncology and Cancer Biology', 'Operations Management and Supervision', 'Operations Research', 'Ophthalmic Laboratory Technology/Technician', 'Ophthalmic and Optometric Support Services and Allied Professions, Other', 'Ophthalmology Residency Programs', 'Opticianry/Ophthalmic Dispensing Optician', 'Optics/Optical Sciences', 'Optometric Technician/Assistant', 'Optometry (OD)', 'Oral Biology and Oral Pathology (MSc, PhD)', 'Oral/Maxillofacial Surgery (Cert., MSc, PhD)', 'Organic Chemistry', 'Organizational Behaviour Studies', 'Organizational Communication, General', 'Ornamental Horticulture', 'Orthodontics/Orthodontology (Cert., MSc, PhD)', 'Orthopedics/Orthopedic Surgery Residency Programs', 'Orthotist/Prosthetist', 'Otolaryngology Residency Programs', 'Pacific Area/Pacific Rim Studies', 'Painting', 'Paleontology', 'Parasitology', 'Parks, Recreation and Leisure Facilities Management', 'Parks, Recreation and Leisure Studies', 'Parts and Warehousing Operations and Maintenance Technology/Technician', 'Parts, Warehousing and Inventory Management Operations', 'Pastoral Counselling and Specialized Ministries, Other', 'Pastoral Studies/Counselling', 'Pathology Residency Programs', 'Pathology/Experimental Pathology', 'Pathology/Pathologist Assistant', 'Peace Studies and Conflict Resolution', 'Pediatric Cardiology Residency Programs', 'Pediatric Dentistry/Pedodontics (Cert., MSc, PhD)', 'Pediatric Endocrinology Residency Programs', 'Pediatric Hemato-Oncology Residency Programs', 'Pediatric Nephrology Residency Programs', 'Pediatric Nurse/Nursing', 'Pediatric Surgery Residency Programs', 'Pediatrics Residency Programs', 'Perfusion Technology/Perfusionist', 'Periodontics/Periodon</t>
         </is>
@@ -928,18 +985,26 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>1198406</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>2</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['no', 'yes']</t>
         </is>

--- a/examples/Canada OGD/post secondary students/profile.xlsx
+++ b/examples/Canada OGD/post secondary students/profile.xlsx
@@ -450,15 +450,20 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -531,12 +536,15 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>592936</v>
+        <v>296468</v>
       </c>
       <c r="U2" t="n">
+        <v>592936</v>
+      </c>
+      <c r="V2" t="n">
         <v>2</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>['1', '2']</t>
         </is>
@@ -605,16 +613,19 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>University</t>
+          <t>College (include Cegep)</t>
         </is>
       </c>
       <c r="T3" t="n">
+        <v>296468</v>
+      </c>
+      <c r="U3" t="n">
         <v>9783444</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>2</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>['College (include Cegep)', 'University']</t>
         </is>
@@ -683,16 +694,19 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>24029000</t>
+          <t>10001000</t>
         </is>
       </c>
       <c r="T4" t="n">
+        <v>2164</v>
+      </c>
+      <c r="U4" t="n">
         <v>4743488</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>274</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>['10001000', '10020000', '11001000', '12001000', '12002000', '12003000', '12004000', '12005000', '12006000', '12007000', '12008000', '12010000', '12011000', '12012000', '12022000', '13002000', '13003000', '13004000', '13005000', '13016001', '24001001', '24002001', '24002005', '24003001', '24003002', '24003003', '24005000', '24006000', '24007000', '24008000', '24009000', '24010000', '24011000', '24012000', '24013000', '24014000', '24015000', '24016000', '24017000', '24020000', '24021000', '24022000', '24023000', '24024000', '24025000', '24026000', '24027000', '24028000', '24029000', '24030000', '24031000', '24032000', '24033000', '24034000', '24035000', '24036001', '24036002', '24036003', '24037000', '24038000', '24039000', '24040000', '24041000', '24042000', '24043000', '24044000', '24045000', '24046000', '24047000', '24048000', '24049000', '24050000', '24051000', '24052000', '24053000', '24054000', '24055000', '24056000', '24057000', '24058000', '24059000', '24060000', '24061000', '24062000', '24063000', '24064000', '24065000', '24068000', '24070000', '24071000', '24072000', '24074000', '24076000', '24077000', '24080000', '24081000', '24082000', '24083000', '24087000', '24089000', '24090000', '24092000', '24093000', '24094000', '24127000', '24128000', '24136000', '24137001', '24137002', '24143000', '24160000', '24400000', '24410000', '24659000', '24700000', '24715000', '24716000', '24717000', '24718000', '24719000', '24720000', '24721000', '24722000', '24723000', '24724000', '24725000', '35001001', '35001002', '35001004', '35002001', '35003001', '35004001', '35004002', '35004003', '35004005', '35005001', '35005003', '35006001', '35006002', '35006003', '35006007', '35007001', '35007002', '35007003', '35007004', '35008001', '35008002', '35008003', '35010001', '35010002', '35011001', '35011002', '35014001', '35015001', '35015002', '35015003', '35015014', '35016001', '35016002', '35017001', '35017002', '35017004', '35017006', '35017007', '35017008', '35018001', '35018002', '35018003', '35018004', '35019001', '35019002', '35019003', '35019004', '35020001', '35021001', '35022001', '35023001', '35024001', '35045001', '35046000', '35048000', '35054000', '35055000', '35058000', '35059000', '35062000', '35064000', '35065000', '35066000', '35067000', '35068000', '35073000', '35089002', '35089003', '46001000', '46002000', '46003000', '46005001', '46005002', '46005003', '46006000', '46009000', '46010000', '46016000', '46017000', '46018000', '46021000', '46023000', '47004000', '47005001', '47005002', '47005003', '47005004', '47005005', '47005007', '47005008', '47015000', '47017000', '47018000', '47020000', '47021000', '47025000', '47026000', '47030000', '48001001', '48002000', '48005000', '48007000', '48008000', '48009000', '48013000', '48014000', '48015000', '48016000', '48022000', '48023000', '48024000', '48026000', '48027000', '48028000', '48031000', '48032000', '48033000', '48034000', '48035000', '48146000', '48147000', '48148000', '59001001', '59001005', '59002000', '59005000', '59007000', '59023000', '59026000', '59027000', '59031000', '59032000', '59033000', '59034000', '59035000', '59036000', '59038000', '59043000', '59045000', '59048001', '59048004', '59049000', '59050000', '59051000', '59052000', '59053000', '59054000', '60001000']</t>
         </is>
@@ -761,16 +775,19 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Collge d'enseignement gZnZral et professionnel (CfGEP) de Thetford</t>
+          <t>Acadia University - Parent Institution</t>
         </is>
       </c>
       <c r="T5" t="n">
+        <v>2164</v>
+      </c>
+      <c r="U5" t="n">
         <v>22014372</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>274</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>['Acadia University - Parent Institution', 'Alberta College of Art and Design', 'Algoma University', 'Algoma University College', 'Algonquin College of Applied Arts and Technology', 'Ambrose University College', 'Assiniboine Community College', 'Athabasca University', 'Atlantic School of Theology', "Bishop's University", 'Bow Valley College', 'Brandon University', 'Brescia College', 'British Columbia Institute of Technology', 'Brock College of Education', 'Brock University', 'Brock University - Hamilton Campus', 'CZgep rZgional de Lanaudire ^ LOAssomption', 'CZgep rZgional de Lanaudire ^ Terrebonne', 'Camosun College', 'Campus Notre-Dame-de-Foy', 'Canadian Mennonite University - Parent Institution', 'Canadian University College', 'Canadore College of Applied Arts and Technology', 'Cape Breton University', 'Capilano University', 'Carleton University', 'Carlton Trail Regional College', 'Centennial College of Applied Arts and Technology', 'Champlain Regional College - Lennoxville Campus', 'Champlain Regional College - St. Lambert Campus', 'Champlain Regional College - St. Lawrence Campus', "CitZ CollZgiale - Campus d'Ottawa", 'CollZgial international Sainte-Anne', 'College international Marie de France', 'College of New Caledonia', 'College of the North Atlantic - Parent Institution', 'College of the Rockies', 'Collge AndrZ-Grasset', 'Collge Bart', 'Collge Centennial / Centennial College', 'Collge Ellis, campus de Drummondville', 'Collge Ellis, campus de Trois-Rivires', 'Collge Heritage / Heritage College', 'Collge Jean-de-BrZbeuf', 'Collge Laflche', 'Collge Nouvelles Frontires', "Collge O'Sullivan de QuZbec / O'Sullivan College of Quebec", 'Collge Shawinigan', 'Collge Stanislas', 'Collge Vanier / Vanier College', "Collge d'Alma", "Collge d'enseignement gZnZral et professionnel (CfGEP) Ahuntsic", "Collge d'enseignement gZnZral et professionnel (CfGEP) AndrZ-Laurendeau", "Collge d'enseignement gZnZral et professionnel (CfGEP) Beauce-Appalaches", "Collge d'enseignement gZnZral et professionnel (CfGEP) Franois-Xavier Garneau", "Collge d'enseignement gZnZral et professionnel (CfGEP) GZrald-Godin", "Collge d'enseignement gZnZral et professionnel (CfGEP) Lionel-Groulx", "Collge d'enseignement gZnZral et professionnel (CfGEP) Marie-Victorin", "Collge d'enseignement gZnZral et professionnel (CfGEP) Montmorency", "Collge d'enseignement gZnZral et professionnel (CfGEP) Saint-Jean-sur-Richelieu", "Collge d'enseignement gZnZral et professionnel (CfGEP) d'Abitibi-TZmiscamingue", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Baie-Comeau", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Bois-de-Boulogne", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Chicoutimi", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Drummondville", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Granby-Haute-Yamaska", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Jonquire", "Collge d'enseignement gZnZral et professionnel (CfGEP) de LZvis-Lauzon", "Collge d'enseignement gZnZral et professionnel (CfGEP) de La Pocatire", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Limoilou", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Maisonneuve", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Matane", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Rimouski", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Rivire-du-Loup", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Rosemont", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Saint-Hyacinthe", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Saint-JZr(tm)me", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Saint-Laurent", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sainte-Foy", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sept-eles", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sherbrooke", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sorel-Tracy", "Collge d'enseignement gZnZral et professionnel (CfGEP) de St-FZlicien", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Thetford", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Trois-Rivires", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Valleyfield", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Victoriaville", "Collge d'enseignement gZnZral et professionnel (CfGEP) de l'Outaouais", "Collge d'enseignement gZnZral et professionnel (CfGEP) de la GaspZsie et des eles", "Collge d'enseignement gZnZral et professionnel (CfGEP) du Vieux MontrZal", "Collge d'enseignement gZnZral et professionnel (CfGEP) fdouard-Montpetit", "Collge d'enseignement gZnZral et professionnel (CfGEP) rZgional de Lanaudire ^ Joliette", 'Collge international des Marcellines', 'Concordia University', 'Concordia University College of Alberta', 'Conrad Grebel University College', 'Conservatoire Lasalle', 'Conservatoire de Musique de Gatineau', 'Conservatoire de musique de MontrZal', 'Conservatoire de musique de QuZbec', 'Conservatoire de musique de Rimouski', 'Conservatoire de musique de Saguenay', 'Conservatoire de musique de Trois-Rivires', "Conservatoire de musique de Val-d'Or", 'Cumberland Regional College', 'Dalhousie University', 'Dawson College', 'Dominican University College', 'Douglas College', 'Emily Carr University of Art and Design', 'Fanshawe College of Applied Arts and Technology', 'George Brown College of Applied Arts and Technology', 'Grande Prairie Regional College', 'Grant MacEwan University', 'Great Plains College', 'Horizon College and Seminary', 'Humber College of Applied Arts and Technology North Campus', 'Huron University College', 'Institut Teccart inc.', 'Institut de Technologie Agroalimentaire (La Pocatire)', 'Institut de Technologie Agroalimentaire (St-Hyacinthe)', "Institut de tourisme et d'h(tm)tellerie", 'Institut national de la recherche scientifique', 'John Abbott College', 'Keyano College', "King's College", 'Kwantlen Polytechnic University', "L'fcole Technique et Professionnelle", 'LaSalle College', 'Lakehead University', 'Lakehead University - Orillia Campus', 'Lakeland College - Parent Institution', 'Langara College', 'Laurentian University', 'Laurentian University - Off Campus Centres', 'Lethbridge College', 'Lutheran Theological Seminary', 'MacDonald College -McGill University', 'Marianopolis College', 'Maritime College of Forest Technology, Fredericton Campus', 'McGill University', 'McMaster Divinity College', 'McMaster University', 'McMaster University - Conestoga', 'McMaster University - Mohawk', 'Medicine Hat College', 'Memorial University of Newfoundland - Parent Institution', 'Merici College', 'Mohawk College of Applied Arts and Technology', 'Mount Allison University', 'Mount Royal University', 'Mount St. Vincent University', 'NSCAD University', 'National Circus School', 'Niagara College Canada', 'Nicola Valley Institute of Technology', 'Nipissing University', 'Nipissing University - Bracebridge Campus', 'Nipissing University - Brantford Campus', 'NorQuest College', 'North Island College', 'North West Regional College', 'Northern Alberta Institute of Technology', 'Northern Lakes College', 'Northern Lights Community College', 'Northern Ontario School of Medicine, East Campus', 'Northern Ontario School of Medicine, West Campus', 'Northlands College', 'Northwest Community College', 'Nova Scotia Agricultural College', 'Nova Scotia Community Colleges (NSCC) - Parent Institution', "O'Sullivan College of Montreal", 'Okanagan College', 'Olds College', 'Ontario College of Art and Design - University', 'Parkland Regional College', 'Portage College', 'Providence College and Seminary', "Queen's Theological College", "Queen's University", 'Red Deer College', 'Red River College - Parent Institution', 'Royal Roads University', 'Ryerson University', 'SZminaire de Sherbrooke', "Saint Andrew's College - University of Manitoba", "Saint Mary's University", 'Saint Paul University', "Saint Peter's College", 'Saskatchewan Institute of Applied Science and Technology (S.I.A.S.T.) - Parent Institution', 'Sault College of Applied Arts and Technology - Parent Institution', 'Selkirk College', 'Seneca College of Applied Arts and Technology', 'Sheridan College of Applied Arts and Technology', 'Simon Fraser University', 'Southeast Regional College', 'Southern Alberta Institute of Technology', 'St. Clair College of Applied Arts and Technology', 'St. Francis Xavier University - Parent Institution', "St. Jerome's University", 'St. Lawrence College of Applied Arts and Technology - Parent Institution', "St. Mary's University College", 'St. Thomas More College', 'St. Thomas University', 'Steinbach Bible College', 'TAV College', 'TZlZ-universitZ', 'Thompson Rivers University', 'Thompson Rivers University - Open Learning', 'Toronto School of Theology', 'Trent University', 'Trent University at Durham College/UOIT', "United Church St. Andrew's College", 'UniversitZ Laval', 'UniversitZ Sainte-Anne - Parent Institution', 'UniversitZ de Hearst', 'UniversitZ de Moncton - Parent Institution', 'UniversitZ de MontrZal', 'UniversitZ de Saint-Boniface', 'UniversitZ de Sherbrooke', 'UniversitZ du QuZbec ^ Chicoutimi', 'UniversitZ du QuZbec ^ MontrZal', 'UniversitZ du QuZbec ^ Rimouski', 'UniversitZ du QuZbec ^ Trois-Rivires', 'UniversitZ du QuZbec en Abitibi-TZmiscamingue', 'UniversitZ du QuZbec en Outaouais', "UniversitZ du QuZbec, fcole nationale d'administration publique - Parent Institution", 'University College of Emmanuel and St. Chad', 'University College of the North - Parent Institution', 'University of Alberta', 'University of British Columbia', 'University of British Columbia, Okanagan', 'University of Calgary', 'University of Guelph', 'University of Guelph - Humber Campus', 'University of Guelph - Kemptville College of Agricultural Technology', 'University of Guelph - Ridgetown College', "University of King's College", 'University of Lethbridge', 'University of Manitoba', 'University of New Brunswick - Parent Institution', 'University of Northern British Columbia - Parent institution', 'University of Ontario -  Institute of Technology', 'University of Ottawa', 'University of Prince Edward Island', 'University of Regina - Parent Institution', 'University of Saskatchewan', 'University of Toronto', 'University of Toronto Mississauga', 'University of Toronto Scarborough', 'University of Waterloo', 'University of Waterloo - Cambridge Campus', 'University of Waterloo - Kitchener Campus', 'University of Waterloo - Stratford Campus', 'University of Western Ontario', 'University of Windsor', 'University of Winnipeg - Parent Institution', 'University of the Fraser Valley', 'Vancouver Community College', 'Vancouver Island University', 'Waterloo Lutheran Seminary', 'Wilfrid Laurier University', 'Wilfrid Laurier University - Brantford Campus', 'Wilfrid Laurier University - Kitchener Campus', 'William and Catherine Booth Bible College', 'Winnipeg Technical College', 'York University', 'Yukon College', 'fcole Polytechnique', "fcole de Musique Vincent d'Indy", 'fcole de stZnographie judiciaire du QuZbec', 'fcole de technologie supZrieure', 'fcole des hautes Ztudes commerciales']</t>
         </is>
@@ -839,16 +856,19 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>51.2205</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T6" t="n">
+        <v>548</v>
+      </c>
+      <c r="U6" t="n">
         <v>4040404</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>1082</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>['1', '1.0101', '1.0102', '1.0103', '1.0104', '1.0105', '1.0201', '1.0205', '1.0301', '1.0302', '1.0303', '1.0304', '1.0306', '1.0307', '1.0399', '1.0401', '1.0507', '1.0599', '1.0601', '1.0603', '1.0604', '1.0605', '1.0606', '1.0607', '1.0608', '1.0699', '1.0701', '1.0801', '1.0901', '1.0903', '1.0906', '1.0999', '1.1001', '1.1002', '1.1099', '1.1101', '1.1102', '1.1103', '1.1104', '1.1105', '1.1106', '1.1199', '1.1201', '1.1299', '1.9999', '10.0105', '10.0201', '10.0202', '10.0203', '10.0299', '10.0301', '10.0302', '10.0303', '10.0304', '10.0305', '11.0101', '11.0102', '11.0103', '11.0199', '11.0201', '11.0202', '11.0203', '11.0299', '11.0301', '11.0401', '11.0501', '11.0601', '11.0701', '11.0801', '11.0802', '11.0803', '11.0899', '11.0901', '11.1001', '11.1002', '11.1003', '11.1004', '11.1099', '11.9999', '12.0301', '12.0302', '12.0401', '12.0406', '12.0407', '12.0409', '12.041', '12.0412', '12.0499', '12.05', '12.0501', '12.0502', '12.0503', '12.0504', '12.0505', '12.0506', '12.0507', '12.0508', '12.0599', '13.0101', '13.0203', '13.0301', '13.0401', '13.0406', '13.0407', '13.0501', '13.0601', '13.0604', '13.0701', '13.0901', '13.1001', '13.1003', '13.1004', '13.1006', '13.1007', '13.1009', '13.1011', '13.1012', '13.1013', '13.1015', '13.1101', '13.1199', '13.1201', '13.1202', '13.1203', '13.1205', '13.1206', '13.1209', '13.121', '13.1299', '13.1301', '13.1302', '13.1303', '13.1304', '13.1305', '13.1306', '13.1307', '13.1308', '13.1309', '13.1311', '13.1312', '13.1314', '13.1316', '13.1317', '13.1318', '13.132', '13.1321', '13.1322', '13.1323', '13.1324', '13.1325', '13.1326', '13.1327', '13.1328', '13.1329', '13.133', '13.1332', '13.1334', '13.1335', '13.1399', '13.1401', '13.1402', '13.1499', '13.1501', '13.1502', '13.1599', '13.9999', '14.0101', '14.0201', '14.0301', '14.0501', '14.0701', '14.0801', '14.0802', '14.0803', '14.0805', '14.0901', '14.0902', '14.0903', '14.0999', '14.1001', '14.1201', '14.1301', '14.1401', '14.1801', '14.1901', '14.2001', '14.2101', '14.2201', '14.2301', '14.2501', '14.2701', '14.3101', '14.3301', '14.3401', '14.3501', '14.3601', '14.3701', '14.3801', '14.3901', '14.9999', '15', '15.0101', '15.0201', '15.0303', '15.0304', '15.0305', '15.0399', '15.0401', '15.0403', '15.0404', '15.0405', '15.0499', '15.0501', '15.0503', '15.0506', '15.0507', '15.0508', '15.0599', '15.0607', '15.0611', '15.0612', '15.0613', '15.0699', '15.0701', '15.0702', '15.0703', '15.0704', '15.0799', '15.0801', '15.0803', '15.0805', '15.0899', '15.0901', '15.0903', '15.1001', '15.1102', '15.1201', '15.1202', '15.1204', '15.1299', '15.1301', '15.1302', '15.1303', '15.1304', '15.1306', '15.1399', '15.1401', '15.1501', '15.9999', '16.0101', '16.0102', '16.0103', '16.0104', '16.0199', '16.0201', '16.03', '16.0301', '16.0302', '16.0303', '16.0399', '16.04', '16.0402', '16.0407', '16.041', '16.0501', '16.0502', '16.0599', '16.0601', '16.09', '16.0902', '16.0904', '16.0905', '16.0907', '16.0999', '16.1001', '16.1101', '16.1103', '16.12', '16.1203', '16.1601', '16.1603', '16.1701', '16.1702', '16.1799', '16.9999', '19', '19.0101', '19.0201', '19.0203', '19.0401', '19.0402', '19.0501', '19.0504', '19.0505', '19.0601', '19.0604', '19.0605', '19.0701', '19.0702', '19.0704', '19.0706', '19.0707', '19.0708', '19.0709', '19.0799', '19.0901', '19.0902', '19.0904', '19.0905', '19.0906', '19.0999', '21.0101', '22', '22.0001', '22.0101', '22.0201', '22.0204', '22.0205', '22.0206', '22.0207', '22.0208', '22.0209', '22.0211', '22.0299', '22.0301', '22.0302', '22.0303', '22.0399', '22.9999', '23.0101', '23.0401', '23.0501', '23.1001', '23.1101', '23.9999', '24.0101', '24.0102', '24.0103', '24.0199', '25.0101', '25.0301', '25.9999', '26.0101', '26.0102', '26.0202', '26.0203', '26.0204', '26.0205', '26.0206', '26.0209', '26.021', '26.0299', '26.0301', '26.0401', '26.0403', '26.0404', '26.0406', '26.0407', '26.0499', '26.0502', '26.0503', '26.0505', '26.0507', '26.0599', '26.0701', '26.0702', '26.0707', '26.0708', '26.0709', '26.0801', '26.0802', '26.0806', '26.0901', '26.0904', '26.0905', '26.0906', '26.0907', '26.0908', '26.0909', '26.091', '26.0911', '26.0999', '26.1001', '26.1004', '26.1006', '26.1007', '26.1102', '26.1103', '26.1199', '26.1201', '26.1301', '26.1302', '26.1303', '26.1304', '26.1305', '26.1306', '26.1307', '26.1309', '26.1399', '26.9999', '27.0101', '27.0199', '27.0301', '27.0303', '27.0399', '27.0501', '27.0502', '27.9999', '29.0101', '3.0101', '3.0103', '3.0104', '3.0199', '3.0201', '3.0204', '3.0205', '3.0206', '3.0299', '3.0301', '3.0501', '3.0502', '3.0506', '3.0509', '3.051', '3.0511', '3.0599', '3.0601', '3.9999', '30.0101', '30.0501', '30.0601', '30.0801', '30.1001', '30.1101', '30.1201', '30.1202', '30.1301', '30.1401', '30.1501', '30.1601', '30.1701', '30.1801', '30.1901', '30.2001', '30.2201', '30.2202', '30.2301', '30.2401', '30.2501', '30.9999', '31.0101', '31.0301', '31.0501', '31.0504', '31.0505', '31.0599', '32.0101', '32.0105', '32.0107', '32.0108', '32.0109', '32.0199', '33.0104', '34.0102', '34.0199', '35.0101', '35.0103', '36.0101', '36.0102', '36.0108', '36.011', '36.0112', '36.0113', '36.0115', '36.0118', '36.0199', '37.0101', '37.0199', '38.0101', '38.0102', '38.0103', '38.0199', '38.0201', '38.0202', '38.0203', '38.0205', '38.0206', '38.0299', '38.9999', '39.0201', '39.0301', '39.0401', '39.0501', '39.0601', '39.0602', '39.0604', '39.0699', '39.0701', '39.0702', '39.0799', '39.9999', '4.0201', '4.0301', '4.0401', '4.0601', '4.0801', '4.0901', '40.0101', '40.0201', '40.0202', '40.0203', '40.0299', '40.0401', '40.0404', '40.0499', '40.0501', '40.0502', '40.0503', '40.0504', '40.0506', '40.0508', '40.0599', '40.0601', '40.0602', '40.0603', '40.0604', '40.0605', '40.0607', '40.0699', '40.0801', '40.0807', '40.0808', '40.081', '40.0899', '40.9999', '41.0101', '41.0205', '41.0301', '41.0399', '42.0101', '42.0201', '42.0301', '42.0401', '42.0501', '42.0601', '42.0701', '42.0801', '42.0901', '42.1001', '42.1101', '42.1601', '42.1701', '42.1801', '42.2001', '42.2201', '42.2501', '42.2601', '42.9999', '43.0102', '43.0103', '43.0104', '43.0106', '43.0107', '43.0109', '43.011', '43.0112', '43.0199', '43.0201', '43.0203', '43.9999', '44', '44.0201', '44.0401', '44.0501', '44.0701', '44.0702', '44.0799', '44.9999', '45.0101', '45.0201', '45.0202', '45.0299', '45.0301', '45.0401', '45.0501', '45.0601', '45.0602', '45.0603', '45.0604', '45.0605', '45.0699', '45.0701', '45.0702', '45.0799', '45.0901', '45.1001', '45.1003', '45.1099', '45.1101', '45.1201', '45.9999', '46', '46.0101', '46.0201', '46.0301', '46.0302', '46.0303', '46.0401', '46.0403', '46.0406', '46.0412', '46.0502', '46.0503', '46.0504', '46.0599', '46.9999', '47', '47.0101', '47.0103', '47.0104', '47.0105', '47.0106', '47.011', '47.0201', '47.0302', '47.0303', '47.0399', '47.0404', '47.0408', '47.0409', '47.0501', '47.0603', '47.0604', '47.0605', '47.0606', '47.0607', '47.0608', '47.0609', '47.0611', '47.0613', '47.0616', '47.0699', '47.9999', '48.0304', '48.0501', '48.0503', '48.0506', '48.0507', '48.0508', '48.0509', '48.0599', '48.0701', '48.0702', '48.0703', '48.0799', '48.0801', '49.0101', '49.0102', '49.0104', '49.0106', '49.0202', '49.0205', '49.0206', '49.0299', '49.0304', '49.0309', '49.0399', '5.0101', '5.0102', '5.0103', '5.0104', '5.0105', '5.0106', '5.0107', '5.0108', '5.0109', '5.011', '5.0111', '5.0112', '5.0114', '5.0115', '5.0119', '5.0122', '5.0123', '5.0124', '5.0125', '5.0126', '5.0127', '5.013', '5.0132', '5.0199', '5.0202', '5.0203', '5.0207', '5.0299', '5.9999', '50.0101', '50.0201', '50.0301', '50.0401', '50.0402', '50.0404', '50.0406', '50.0407', '50.0408', '50.0409', '50.041', '50.0499', '50.0501', '50.0502', '50.0504', '50.0505', '50.0506', '50.0507', '50.0508', '50.0599', '50.0601', '50.0602', '50.0605', '50.0699', '50.0701', '50.0702', '50.0703', '50.0704', '50.0705', '50.0706', '50.0708', '50.0709', '50.071', '50.0711', '50.0712', '50.0713', '50.0799', '50.0901', '50.0902', '50.0903', '50.0904', '50.0905', '50.0906', '50.0907', '50.0908', '50.0909', '50.091', '50.0911', '50.0912', '50.0999', '50.9999', '51', '51.0101', '51.0201', '51.0202', '51.0203', '51.0204', '51.0299', '51.0401', '51.0501', '51.0502', '51.0503', '51.0504', '51.0506', '51.0507', '51.0508', '51.0509', '51.051', '51.0511', '51.0599', '51.0601', '51.0602', '51.0603', '51.0701', '51.0702', '51.0703', '51.0705', '51.0706', '51.0707', '51.0708', '51.071', '51.0712', '51.0714', '51.0716', '51.0801', '51.0802', '51.0803', '51.0805', '51.0806', '51.0808', '51.0809', '51.081', '51.0811', '51.0812', '51.0899', '51.0901', '51.0902', '51.0903', '51.0904', '51.0905', '51.0906', '51.0907', '51.0908', '51.0909', '51.091', '51.0911', '51.0912', '51.0913', '51.0915', '51.0999', '51.1001', '51.1002', '51.1004', '51.1005', '51.1006', '51.101', '51.1099', '51.1101', '51.1102', '51.1103', '51.1104', '51.1105', '51.1199', '51.1201', '51.1401', '51.1501', '51.1502', '51.1504', '51.1505', '51.1506', '51.1508', '51.1509', '51.1599', '51.1601', '51.1602', '51.1604', '51.1605', '51.1606', '51.1607', '51.1608', '51.1609', '51.161', '51.1611', '51.1612', '51.1613', '51.1616', '51.1617', '51.1618', '51.1699', '51.1701', '51.1801', '51.1802', '51.1899', '51.2001', '51.2002', '51.2003', '51.2004', '51.2006', '51.2008', '51.2009', '51.2099', '51.2101', '51.2201', '51.2202', '51.2205', '51.2206', '51.2207', '51.2208', '51.221', '51.2211', '51.2299', '51.2301', '51.2305', '51.2306', '51.2307', '51.2308', '51.2309', '51.231', '51.2399', '51.2401', '51.2501', '51.2504', '51.2505', '51.2507', '51.2508', '51.251', '51.2599', '51.2601', '51.2602', '51.2699', '51.2706', '51.3101', '51.3102', '51.3103', '51.3201', '51.3301', '51.3399', '51.3401', '51.3499', '51.3501', '51.3602', '51.3702', '51.3704', '51.3799', '51.9999', '52.0101', '52.0201', '52.0202', '52.0203', '52.0204', '52.0205', '52.0206', '52.0207', '52.0208', '52.0209', '52.0299', '52.0301', '52.0302', '52.0303', '52.0304', '52.0305', '52.0399', '52.0401', '52.0402', '52.0407', '52.0408', '52.0409', '52.041', '52.0411', '52.0499', '52.0501', '52.0601', '52.0701', '52.0703', '52.0799', '52.0801', '52.0803', '52.0804', '52.0806', '52.0807', '52.0808', '52.0809', '52.0899', '52.0901', '52.0903', '52.0904', '52.0905', '52.0906', '52.0999', '52.1001', '52.1002', '52.1003', '52.1004', '52.1005', '52.1099', '52.1101', '52.1201', '52.1206', '52.1207', '52.1299', '52.1301', '52.1302', '52.1304', '52.1399', '52.1401', '52.1402', '52.1403', '52.1499', '52.1501', '52.1601', '52.1701', '52.1801', '52.1802', '52.1803', '52.1804', '52.1902', '52.1904', '52.1905', '52.1906', '52.1907', '52.1908', '52.1909', '52.191', '52.1999', '52.2001', '52.9999', '53.0101', '53.0102', '53.0103', '53.0105', '53.0201', '54.0101', '54.0103', '54.0104', '54.0105', '54.0107', '54.0199', '55.0101', '55.0301', '55.0401', '55.0501', '55.0601', '55.0801', '55.9999', '60.0101', '60.0199', '60.0202', '60.0203', '60.0204', '60.0205', '60.0206', '60.0207', '60.0209', '60.021', '60.0211', '60.0212', '60.0213', '60.0214', '60.0215', '60.0216', '60.0217', '60.0218', '60.022', '60.0221', '60.0222', '60.0224', '60.0225', '60.0227', '60.0228', '60.0229', '60.0231', '60.0232', '60.0233', '60.0234', '60.0235', '60.0236', '60.0237', '60.0238', '60.0239', '60.024', '60.0241', '60.0242', '60.0243', '60.0244', '60.0245', '60.0246', '60.0247', '60.0248', '60.025', '60.0251', '60.0252', '60.0253', '60.0255', '60.0256', '60.0257', '60.0258', '60.026', '60.0261', '60.0262', '60.0263', '60.0264', '60.0266', '60.0268', '60.027', '60.0299', '89.9991', '89.9992', '9.0101', '9.0102', '9.0199', '9.0401', '9.0402', '9.0404', '9.0499', '9.0701', '9.0702', '9.0799', '9.0901', '9.0902', '9.0903', '9.0904', '9.0905', '9.0999', '9.1001', '9.9999', 'TT.TTTT']</t>
         </is>
@@ -917,16 +937,19 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Ecology</t>
+          <t>Aboriginal Education</t>
         </is>
       </c>
       <c r="T7" t="n">
+        <v>548</v>
+      </c>
+      <c r="U7" t="n">
         <v>21171432</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>1082</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>['Aboriginal Education', 'Aboriginal Languages, Literatures and Linguistics', 'Aboriginal Studies', 'Aboriginal and Foreign Language Teacher Education', 'Aboriginal and Foreign Languages and Literatures, General', 'Aboriginal and Foreign Languages, Literatures and Linguistics, Other', 'Accounting', 'Accounting Technology/Technician and Bookkeeping', 'Accounting and Business/Management', 'Accounting and Computer Science', 'Accounting and Finance', 'Accounting and Related Services, Other', 'Acting', 'Actuarial Science', 'Acupuncture', 'Administrative Assistant and Secretarial Science, General', 'Adult Development and Aging', 'Adult High School/Secondary Diploma Programs', 'Adult Literacy Tutor/Instructor', 'Adult and Continuing Education and Teaching', 'Advanced General Dentistry (Cert., MSc, PhD)', 'Advanced Legal Research/Studies, General (LLM, MCL, MLI, MSL, JSD/SJD)', 'Advanced/Graduate Dentistry and Oral Sciences (Cert., MSc, PhD), Other', 'Advertising', 'Aeronautical/Aerospace Engineering Technology/Technician', 'Aeronautics/Aviation/Aerospace Science and Technology, General', 'Aerospace, Aeronautical and Astronautical Engineering', 'Aesthetician/Esthetician and Skin Care Specialist', 'African Languages, Literatures and Linguistics', 'African Studies', 'Agribusiness/Agricultural Business Operations', 'Agricultural Business and Management, General', 'Agricultural Economics', 'Agricultural Mechanics and Equipment/Machine Technology', 'Agricultural Mechanization, General', 'Agricultural Production Operations, General', 'Agricultural Production Operations, Other', 'Agricultural Teacher Education', 'Agricultural and Domestic Animal Services, Other', 'Agricultural and Extension Education Services', 'Agricultural and Food Products Processing', 'Agricultural and Horticultural Plant Breeding', 'Agricultural/Biological Engineering and Bioengineering', 'Agricultural/Farm Supplies Retailing and Wholesaling', 'Agriculture, Agriculture Operations and Related Sciences, Other', 'Agriculture, General', 'Agronomy and Crop Science', 'Aircraft Powerplant Technology/Technician', 'Airframe Mechanics and Aircraft Maintenance Technology/Technician', 'Airline Flight Attendant', 'Airline/Commercial/Professional Pilot and Flight Crew', 'Allergies and Immunology Residency Programs', 'Allied Health Diagnostic, Intervention and Treatment Professions, Other', 'Allied Health and Medical Assisting Services, Other', 'Alternative and Complementary Medical Support Services, Other', 'Alternative and Complementary Medicine and Medical Systems, Other', 'American Sign Language (ASL)', 'American/United States Studies/Civilization', 'Analytical Chemistry', 'Anatomy', 'Ancient Near Eastern and Biblical Languages, Literatures and Linguistics', 'Ancient Studies/Civilization', 'Anesthesiologist Assistant', 'Anesthesiology Residency Programs', 'Animal Behaviour and Ethology', 'Animal Health', 'Animal Physiology', 'Animal Sciences, General', 'Animal Sciences, Other', 'Animal/Livestock Husbandry and Production', 'Animation, Interactive Technology, Video Graphics and Special Effects', 'Anthropology, General', 'Anthropology, Other', 'Apparel and Accessories Marketing Operations', 'Apparel and Textile Manufacture', 'Apparel and Textile Marketing Management', 'Apparel and Textiles, General', 'Apparel and Textiles, Other', 'Appliance Installation and Repair Technology/Technician', 'Applied Economics', 'Applied Horticulture/Horticultural Business Services, Other', 'Applied Horticulture/Horticulture Operations, General', 'Applied Mathematics, General', 'Applied Mathematics, Other', 'Aquaculture', 'Aquatic Biology/Limnology', 'Arabic Language and Literature', 'Archeology', 'Architectural Drafting and Architectural CAD/CADD', 'Architectural Engineering Technology/Technician', 'Architectural History and Criticism', 'Architectural Technology/Technician', 'Architecture (BArch, BA/BSc, MArch, MA/MSc, PhD)', 'Area Studies, Other', 'Area, Ethnic, Cultural and Gender Studies, Other', 'Art (not for credit)', 'Art History, Criticism and Conservation', 'Art Teacher Education', 'Art Therapy/Therapist', 'Art/Art Studies, General', 'Artificial Intelligence and Robotics', 'Arts Management', 'Asian Studies/Civilization', 'Astronomy', 'Astronomy and Astrophysics, Other', 'Astrophysics', 'Athletic Training/Trainer', 'Atmospheric Sciences and Meteorology, General', 'Atmospheric Sciences and Meteorology, Other', 'Audiology/Audiologist and Hearing Sciences', 'Audiology/Audiologist and Speech-language Pathology/Pathologist', 'Audiovisual Communications Technologies/Technicians, Other', 'Auditing', 'Autobody/Collision and Repair Technology/Technician', 'Automobile/Automotive Mechanics Technology/Technician', 'Automotive Engineering Technology/Technician', 'Aviation/Airway Management and Operations', 'Avionics Maintenance Technology/Technician', 'Baking and Pastry Arts/Baker/Pastry Chef', 'Banking and Financial Support Services', 'Banking, Corporate, Finance and Securities Law (LLM, JSD/SJD)', 'Bartending/Bartender', 'Basic Skills, General', 'Basic Skills, Other', 'Behavioural Sciences', 'Bible/Biblical Studies', 'Biochemistry', 'Biochemistry/Biophysics and Molecular Biology, Integrated', 'Biochemistry/Biophysics and Molecular Biology, Other', 'Bioethics/Medical Ethics', 'Bioinformatics', 'Biological and Biomedical Sciences, Other', 'Biological and Physical Sciences', 'Biology Teacher Education', 'Biology Technician/Biotechnology Laboratory Technician', 'Biology/Biological Sciences, General', 'Biomathematics and Bioinformatics, Other', 'Biomedical Sciences, General', 'Biomedical Technology/Technician', 'Biomedical/Medical Engineering', 'Biophysics', 'Biopsychology', 'Biostatistics', 'Biotechnology', 'Birthing and Parenting Knowledge and Skills', 'Blood Bank Technology Specialist', 'Blood Banking Residency Programs', 'Boilermaking/Boilermaker', 'Botany/Plant Biology, General', 'Broadcast Journalism', 'Buddhist Studies', 'Building/Construction Site Management/Manager', 'Building/Home/Construction Inspection/Inspector', 'Building/Property Maintenance and Management', 'Business Administration and Management, General', 'Business Administration, Management and Operations, Other', 'Business Operations Support and Assistant Services, Other', 'Business Statistics', 'Business Teacher Education', 'Business and Personal/Financial Services Marketing Operations', 'Business and Social Skills', 'Business, Family and Consumer Sciences/Human Sciences', 'Business, Management, Marketing and Related Support Services, Other', 'Business/Commerce, General', 'Business/Corporate Communications', 'Business/Managerial Economics', 'Business/Office Automation/Technology/Data Entry', 'CAD/CADD Drafting and/or Design Technology/Technician', 'Cabinetmaking and Millwork', 'Canadian Government and Politics', 'Canadian History', 'Canadian Law/Legal Studies/Jurisprudence (LLM, MCJ, JSD/SJD)', 'Canadian Studies', 'Cardiology Residency Programs', 'Cardiopulmonary Technology/Technologist', 'Cardiovascular Science', 'Cardiovascular Technology/Technologist', 'Career Exploration/Awareness Skills', 'Caribbean Studies', 'Carpentry/Carpenter', 'Cartography', 'Catalan Language and Literature', 'Cell Biology and Anatomy', 'Cell/Cellular Biology and Anatomical Sciences, Other', 'Cell/Cellular Biology and Histology', 'Cell/Cellular and Molecular Biology', 'Central/Middle and Eastern European Studies', 'Ceramic Arts and Ceramics', 'Chemical Engineering', 'Chemical Pathology Residency Programs', 'Chemical Physics', 'Chemical Technology/Technician', 'Chemistry Teacher Education', 'Chemistry, General', 'Chemistry, Other', 'Child Care Provider/Assistant', 'Child Care and Support Services Management', 'Child Development', 'Child Neurology Residency Programs', 'Child/Pediatric Neurology Residency Programs', 'Chinese Language and Literature', 'Chinese Studies', 'Chiropractic (DC)', 'Christian Studies', 'Cinematography and Film/Video Production', 'City/Urban, Community and Regional Planning', 'Civil Drafting and Civil Engineering CAD/CADD', 'Civil Engineering Technology/Technician', 'Civil Engineering, General', 'Classical, Ancient Mediterranean and Near Eastern Studies and Archeology', 'Classics and Classical Languages, Literatures and Linguistics, General', 'Clinical Child Psychology', 'Clinical Laboratory Science/Medical Technology/Technologist', 'Clinical Nurse Specialist', 'Clinical Nutrition/Nutritionist', 'Clinical Pastoral Counselling/Patient Counselling', 'Clinical Psychology', 'Clinical and Industrial Drug Development (MSc, PhD)', 'Clinical, Hospital and Managed Care Pharmacy (MSc, PhD)', 'Clinical/Medical Laboratory Assistant', 'Clinical/Medical Laboratory Science and Allied Professions, Other', 'Clinical/Medical Laboratory Technician', 'Cognitive Psychology and Psycholinguistics', 'Cognitive Science', 'College/University Preparatory and Advanced High School/Secondary Diploma Programs', 'Colon and Rectal Surgery Residency Programs', 'Commercial Photography', 'Commercial and Advertising Art', 'Communication Disorders Sciences and Services, Other', 'Communication Disorders, General', 'Communication Studies/Speech Communication and Rhetoric', 'Communication and Media Studies, Other', 'Communication, Journalism and Related Programs, Other', 'Communications Systems Installation and Repair Technology', 'Communications Technology/Technician', 'Community College and General and Vocational College (CEGEP) Administration', 'Community Health Services/Liaison/Counselling', 'Community Health and Preventive Medicine', 'Community Involvement', 'Community Organization and Advocacy', 'Community Psychology', 'Comparative Law (LLM, MCL, JSD/SJD)', 'Comparative Literature', 'Comparative Psychology', 'Computational Mathematics', 'Computer Engineering Technologies/Technicians, Other', 'Computer Engineering Technology/Technician, General', 'Computer Engineering, General', 'Computer Engineering, Other', 'Computer Games and Programming Skills', 'Computer Graphics', 'Computer Hardware Engineering', 'Computer Installation and Repair Technology/Technician', 'Computer Programming, Other', 'Computer Programming, Specific Applications', 'Computer Programming, Vendor/Product Certification', 'Computer Programming/Programmer, General', 'Computer Science', 'Computer Software Engineering', 'Computer Software Technology/Technician', 'Computer Software and Media Applications, Other', 'Computer Systems Analysis/Analyst', 'Computer Systems Networking and Telecommunications', 'Computer Teacher Education', 'Computer Technology/Computer Systems Technology', 'Computer and Information Sciences and Support Services, General, Other', 'Computer and Information Sciences and Support Services, Other', 'Computer and Information Sciences, General', 'Computer and Information Systems Security', 'Computer/Information Technology Administration and Management, Other', 'Conducting', 'Conservation Biology', 'Construction Engineering', 'Construction Engineering Technology/Technician', 'Construction Management', 'Construction Trades, General', 'Construction Trades, Other', 'Construction/Heavy Equipment/Earthmoving Equipment Operation', 'Consumer Economics', 'Consumer Merchandising/Retailing Management', 'Cooking and Other Domestic Skills', 'Cooking and Related Culinary Arts, General', 'Corrections', 'Cosmetology and Related Personal Grooming Services, Other', 'Cosmetology/Cosmetologist, General', 'Counselling Psychology', 'Counsellor Education/School Counselling and Guidance Services', 'Court Reporting/Court Reporter', 'Crafts/Craft Design, Folk Art and Artisanry', 'Credit Management', 'Criminal Justice and Corrections, Other', 'Criminal Justice/Law Enforcement Administration', 'Criminal Justice/Police Science', 'Criminal Justice/Safety Studies', 'Criminology', 'Critical Care Anesthesiology Residency Programs', 'Critical Care Medicine Residency Programs', 'Critical Care Nursing', 'Critical Care Surgery Residency Programs', 'Crop Production', 'Culinary Arts and Related Services, Other', 'Culinary Arts/Chef Training', 'Cultural Resource Management and Policy Analysis', 'Curriculum and Instruction', 'Customer Service Management', 'Customer Service Support/Call Centre/Teleservice Operation', 'Cytogenetics/Genetics/Clinical Genetics Technology/Technologist', 'Cytotechnology/Cytotechnologist', 'Dairy Husbandry and Production', 'Dance, General', 'Data Entry/Microcomputer Applications, General', 'Data Modelling/Warehousing and Database Administration', 'Data Processing and Data Processing Technology/Technician', 'Demography and Population Studies', 'Dental Assisting/Assistant', 'Dental Clinical Sciences, General (MSc, PhD)', 'Dental Hygiene/Hygienist', 'Dental Laboratory Technology/Technician', 'Dental Public Health and Education (Cert., MSc, MPH, PhD, DPH)', 'Dental Residency Programs, Other', 'Dental/Oral Surgery Specialty Residency Programs', 'Dentistry (DDS, DMD)', 'Dermatology Residency Programs', 'Dermatopathology Residency Programs', 'Design and Applied Arts, Other', 'Design and Visual Communications, General', 'Development Economics and International Development', 'Developmental Biology and Embryology', 'Developmental and Child Psychology', 'Diagnostic Medical Sonography/Sonographer and Ultrasound Technician', 'Diagnostic Radiology Residency Programs', 'Diesel Mechanics Technology/Technician', 'Dietetic Technician (DTR)', 'Dietetics/Dietitian (RD)', 'Digital Communication and Media/Multimedia', 'Direct Entry Midwifery (LM, CPM)', 'Directing and Theatrical Production', 'Diver, Professional and Instructor', 'Divinity/Ministry (BDiv, MDiv)', 'Drafting and Design Technology/Technician, General', 'Drafting/Design Engineering Technologies/Technicians, Other', 'Drama and Dance Teacher Education', 'Drama and Dramatics/Theatre Arts, General', 'Drama/Theatre Arts and Stagecraft, Other', 'Drawing', 'Driver and Safety Teacher Education', 'E-commerce/Electronic Commerce', 'Early Childhood Education and Teaching', 'East Asian Languages, Literatures and Linguistics, General', 'East Asian Languages, Literatures and Linguistics, Other', 'East Asian Studies', 'Ecology', 'Ecology, Evolution, Systematics and Population Biology, Other', 'Econometrics and Quantitative Economics', 'Economics, General', 'Economics, Other', 'Education, General', 'Education, Other', 'Education/Teaching of Individuals in Early Childhood Special Education Programs', 'Education/Teaching of Individuals with Autism', 'Education/Teaching of Individuals with Hearing Impairments Including Deafness', 'Education/Teaching of Individuals with Multiple Disabilities', 'Education/Teaching of Individuals with Specific Learning Disabilities', 'Education/Teaching of Individuals with Speech or Language Impairments', 'Education/Teaching of Individuals with Vision Impairments Including Blindness', 'Education/Teaching of Intellectually-impaired Individuals', 'Education/Teaching of the Gifted and Talented', 'Educational Assessment, Testing and Measurement', 'Educational Evaluation and Research', 'Educational Leadership and Administration, General', 'Educational Psychology', 'Educational/Instructional Media Design', 'Electrical and Electronic Engineering Technologies/Technicians, Other', 'Electrical and Power Transmission Installation/Installer, General', 'Electrical, Electronic and Communications Engineering Technology/Technician', 'Electrical, Electronics and Communications Engineering', 'Electrical/Electronics Equipment Installation and Repair, General', 'Electrician', 'Electrocardiograph Technology/Technician', 'Electromechanical Technology/Electromechanical Engineering Technology', 'Electromechanical and Instrumentation and Maintenance Technologies/Technicians, Other', 'Electroneurodiagnostic/Electroencephalographic Technology/Technologist', 'Elementary Education and Teaching', 'Emergency Care Attendant (EMT Ambulance)', 'Emergency Medical Technology/Technician (EMT Paramedic)', 'Emergency Medicine Residency Programs', 'Endocrinology', 'Endocrinology and Metabolism Residency Programs', 'Endodontics/Endodontology (Cert., MSc, PhD)', 'Energy Management and Systems Technology/Technician', 'Energy, Environment and Natural Resources Law (LLM, MSc, JSD/SJD)', 'Energy-based and Biologically-based Therapies, Other', 'Engineering Physics', 'Engineering Science', 'Engineering Technologies/Technicians, Other', 'Engineering Technology, General', 'Engineering, General', 'Engineering, Other', 'Engineering/Industrial Management', 'English Composition', 'English Creative Writing', 'English Language and Literature, General', 'English Language and Literature/Letters, Other', 'English Speech and Rhetorical Studies', 'English Technical and Business Writing', 'English as a Second Language', 'English/English Language Arts Teacher Education', 'Entomology', 'Entrepreneurial and Small Business Operations, Other', 'Entrepreneurship/Entrepreneurial Studies', 'Environmental Biology', 'Environmental Control Technologies/Technicians, Other', 'Environmental Design/Architecture', 'Environmental Engineering Technology/Environmental Technology', 'Environmental Health', 'Environmental Science', 'Environmental Studies', 'Environmental Toxicology', 'Environmental/Environmental Health Engineering', 'Epidemiology', 'Equestrian/Equine Studies', 'Ethics', 'Ethnic, Cultural Minority and Gender Studies, Other', 'European History', 'European Studies/Civilization', 'Evolutionary Biology', 'Executive Assistant/Executive Secretary', 'Exercise Physiology', 'Experimental Psychology', 'Facilities Planning and Management', 'Family Medicine Residency Programs', 'Family Practice Nurse/Nurse Practitioner', 'Family Psychology', 'Family Resource Management Studies, General', 'Family Systems', 'Family and Community Services', 'Family and Consumer Sciences/Home Economics Teacher Education', 'Family and Consumer Sciences/Human Sciences, General', 'Farm/Farm and Ranch Management', 'Fashion Merchandising', 'Fashion and Fabric Consultant', 'Fashion/Apparel Design', 'Fibre, Textile and Weaving Arts', 'Film/Cinema Studies', 'Film/Video and Photographic Arts, Other', 'Finance and Financial Management Services, Other', 'Finance, General', 'Financial Planning and Services', 'Fine Arts and Art Studies, Other', 'Fine/Studio Arts, General', 'Fire Protection and Safety Technology/Technician', 'Fire Science/Firefighting', 'Fishing and Fisheries Sciences and Management', 'Floriculture/Floristry Operations and Management', 'Food Preparation/Professional Cooking/Kitchen Assistant', 'Food Science', 'Food Science and Technology, Other', 'Food Service, Waiter/Waitress and Dining Room Management/Manager', 'Food Technology and Processing', 'Foods, Nutrition and Wellness Studies, General', 'Foodservice Systems Administration/Management', 'Forensic Psychology', 'Forensic Science and Technology', 'Forest Engineering', 'Forest Management/Forest Resources Management', 'Forest Resources Production and Management', 'Forest Sciences and Biology', 'Forest Technology/Technician', 'Forestry, General', 'Forestry, Other', 'French Canadian Literature', 'French Composition', 'French Creative Writing', 'French Language and Literature, General', 'French Language and Literature/Letters, Other', 'French Language/French Language Arts Teacher Education', 'French Literature (France and the French Community)', 'French Studies', 'French Technical and Business Writing', 'French as a Second Language', 'Funeral Direction/Service', 'Funeral Service and Mortuary Science, General', 'Furniture Design and Manufacturing', 'Gastroenterology Residency Programs', 'General Office Occupations and Clerical Services', 'General Studies', 'General Surgery Residency Programs', 'Genetic Counselling/Counsellor', 'Genetics, General', 'Geochemistry', 'Geography', 'Geography Teacher Education', 'Geography and Cartography, Other', 'Geological and Earth Sciences/Geosciences, Other', 'Geological/Geophysical Engineering', 'Geology/Earth Science, General', 'Geophysics and Seismology', 'Geotechnical Engineering', 'Geriatric Medicine (Internal Medicine) Residency Programs', 'Geriatric Medicine Residency Programs', 'German Language Teacher Education', 'German Language and Literature', 'German Studies', 'Germanic Languages, Literatures and Linguistics, Other', 'Gerontology', 'Geropsychology', 'Glazier', 'Graphic Communications, General', 'Graphic Design', 'Graphic and Printing Equipment Operator, General Production', 'Greenhouse Operations and Management', 'Ground Transportation, Other', 'Hair Styling/Stylist and Hair Design', 'Handicrafts and Model-making', 'Hazardous Materials Information Systems Technology/Technician', 'Hazardous Materials Management and Waste Technology/Technician', 'Health Aide', 'Health Aides/Attendants/Orderlies, Other', 'Health Communication', 'Health Information/Medical Records Administration/Administrator', 'Health Information/Medical Records Technology/Technician', 'Health Law (LLM, MJ, JSD/SJD)', 'Health Occupations Teacher Education', 'Health Professions and Related Clinical Sciences, Other', 'Health Services Administration', 'Health Services/Allied Health/Health Sciences, General', 'Health Teacher Education', 'Health Unit Coordinator/Ward Clerk', 'Health and Physical Education, General', 'Health and Physical Education/Fitness, Other', 'Health-related Knowledge and Skills, Other', 'Health/Health Care Administration/Management', 'Health/Medical Physics', 'Health/Medical Preparatory Programs, Other', 'Heating, Air Conditioning and Refrigeration Technology/Technician (ACH/ACR/ACHR/HRAC/HVAC/AC Technology)', 'Heating, Air Conditioning, Ventilation and Refrigeration Maintenance Technology/Technician (HAC, HACR, HVAC, HVACR)', 'Heavy Equipment Maintenance Technology/Technician', 'Heavy/Industrial Equipment Maintenance Technologies, Other', 'Hematological Pathology Residency Programs', 'Hematology Residency Programs', 'Herbalism/Herbalist', 'High School Equivalence Certificate Programs', 'Higher Education/Higher Education Administration', 'Hispanic American, Puerto Rican and Mexican American/Chicano Studies', 'Historic Preservation and Conservation, General', 'History Teacher Education', 'History and Philosophy of Science and Technology', 'History, General', 'History, Other', 'Home Furnishings and Equipment Installers', 'Home Health Aide/Home Attendant', 'Horse Husbandry/Equine Science and Management', 'Horticultural Science', 'Hospital and Health Care Facilities Administration/Management', 'Hospitality Administration/Management, General', 'Hospitality Administration/Management, Other', 'Hospitality and Recreation Marketing Operations', 'Hotel/Motel Administration/Management', 'Housing and Human Environments, General', 'Human Development and Family Studies, General', 'Human Development, Family Studies and Related Services, Other', 'Human Nutrition', 'Human Resources Development', 'Human Resources Management and Services, Other', 'Human Resources Management/Personnel Administration, General', 'Human Services, General', 'Human/Medical Genetics', 'Humanities/Humanistic Studies', 'Hydrology and Water Resources Science', 'Illustration', 'Immunology', 'Industrial Design', 'Industrial Electronics Technology/Technician', 'Industrial Engineering', 'Industrial Mechanics and Maintenance Technology', 'Industrial Production Technologies/Technicians, Other', 'Industrial Safety Technology/Technician', 'Industrial Technology/Technician', 'Industrial and Organizational Psychology', 'Industrial and Physical Pharmacy and Cosmetic Sciences (MSc, PhD)', 'Infectious Disease Residency Programs', 'Information Resources Management/Chief Information Officer (CIO) Training', 'Information Science/Studies', 'Information Technology', 'Inorganic Chemistry', 'Institutional Food Workers', 'Instructional program not applicable', 'Instructional program not reported', 'Instrumentation Technology/Technician', 'Insurance', 'Intercultural/Multicultural and Diversity Studies', 'Interior Design', 'Intermedia/Multimedia', 'Internal Medicine Residency Programs', 'International Agriculture', 'International Business/Trade/Commerce', 'International Economics', 'International Finance', 'International Law and Legal Studies (LLM, JSD/SJD)', 'International Marketing', 'International Public Health/International Health', 'International Relations and Affairs', 'International and Comparative Education', 'International/Global Studies', 'Interpersonal and Social Skills, General', 'Investments and Securities', 'Ironworking/Ironworker', 'Islamic Studies', 'Italian Language and Literature', 'Italian Studies', 'Japanese Language and Literature', 'Japanese Studies', 'Jazz/Jazz Studies', 'Jewish/Judaic Studies', 'Job-seeking/Changing Skills', 'Journalism, General', 'Journalism, Other', 'Junior High/Intermediate/Middle School Education and Teaching', 'Juvenile Corrections', 'Kindergarten/Preschool Education and Teaching', 'Kinesiology and Exercise Science', 'Knowledge Management', 'Korean Language and Literature', 'Laboratory Medicine Residency Programs', 'Labour Studies', 'Labour and Industrial Relations', 'Land Use Planning and Management/Development', 'Landscape Architecture (BSc, BSLA, BLA, MSLA, MLA, PhD)', 'Landscaping and Groundskeeping', 'Language Interpretation and Translation', 'Large Animal/Food Animal and Equine Surgery and Medicine (Cert., MSc, PhD)', 'Laser and Optical Technology/Technician', 'Latin American Studies', 'Latin Language and Literature', 'Law (LLB, JD, BCL)', 'Legal Administrative Assistant/Secretary', 'Legal Assistant/Paralegal', 'Legal Professions and Studies, Other', 'Legal Research and Advanced Professional Studies (Post-LLB/JD), Other', 'Legal Studies, General', 'Legal Support Services, Other', 'Leisure and Recreational Activities, General', 'Leisure and Recreational Activities, Other', 'Liberal Arts and Sciences, General Studies and Humanities, Other', 'Liberal Arts and Sciences/Liberal Studies', 'Library Assistant/Technician', 'Library Science, Other', 'Library Science/Librarianship', 'Licensed Practical/Vocational Nurse Training (LPN, LVN, Cert., Dipl., AAS)', 'Lineworker', 'Linguistic, Comparative and Related Language Studies and Services, Other', 'Linguistics', 'Literacy and Communication Skills', 'Livestock Management', 'Logic', 'Logistics and Materials Management', 'Machine Shop Technology/Assistant', 'Machine Tool Technology/Machinist', 'Makeup Artist/Specialist', 'Management Information Systems and Services, Other', 'Management Information Systems, General', 'Management Science, General', 'Management Sciences and Quantitative Methods, Other', 'Manufacturing Engineering', 'Manufacturing Technology/Technician', 'Marine Biology and Biological Oceanography', 'Marine Maintenance/Fitter and Ship Repair Technology/Technician', 'Marine Transportation, Other', 'Marketing Research', 'Marketing, Other', 'Marketing/Marketing Management, General', 'Marriage and Family Therapy/Counselling', 'Masonry/Mason', 'Mass Communication/Media Studies', 'Massage Therapy/Therapeutic Massage', 'Materials Engineering', 'Materials Science', 'Maternal/Child Health and Neonatal Nurse/Nursing', 'Mathematical Statistics and Probability', 'Mathematics Teacher Education', 'Mathematics and Computer Science', 'Mathematics and Statistics, Other', 'Mathematics, General', 'Mathematics, Other', 'Meat Cutting/Meat Cutter', 'Mechanic and Repair Technologies/Technicians, Other', 'Mechanical Drafting and Mechanical Drafting CAD/CADD', 'Mechanical Engineering', 'Mechanical Engineering Related Technologies/Technicians, Other', 'Mechanical Engineering/Mechanical Technology/Technician', 'Mechanics and Repairers, General', 'Medical Administrative/Executive Assistant and Medical Secretary', 'Medical Informatics', 'Medical Insurance Specialist/Medical Biller', 'Medical Microbiology and Bacteriology', 'Medical Office Assistant/Specialist', 'Medical Office Management/Administration', 'Medical Radiologic Technology/Science D Radiation Therapist', 'Medical Reception/Receptionist', 'Medical Residency Programs, Other', 'Medical Scientist (MSc, PhD)', 'Medical Transcription/Transcriptionist', 'Medical/Clinical Assistant', 'Medicinal and Pharmaceutical Chemistry (MSc, PhD)', 'Medicine (MD)', 'Medieval and Renaissance Studies', 'Medium/Heavy Vehicle and Truck Technology/Technician', 'Mental Health Counselling/Counsellor', 'Mental and Social Health Services and Allied Professions, Other', 'Merchandising and Buying Operations', 'Metal and Jewellery Arts', 'Metallurgical Engineering', 'Metallurgical Technology/Technician', 'Meteorology', 'Microbiological Sciences and Immunology, Other', 'Microbiology, General', 'Military Technologies', 'Mining Technology/Technician', 'Mining and Mineral Engineering', 'Missions/Missionary Studies and Missiology', 'Mobile Crane Operation/Operator', 'Modern Greek Language and Literature', 'Molecular Biochemistry', 'Molecular Biology', 'Molecular Biophysics', 'Molecular Genetics', 'Motorcycle Maintenance and Repair Technology/Technician', 'Multidisciplinary/Interdisciplinary Studies, Other', 'Museology/Museum Studies', 'Music (not for credit)', 'Music History, Literature and Theory', 'Music Management and Merchandising', 'Music Pedagogy', 'Music Performance, General', 'Music Teacher Education', 'Music Theory and Composition', 'Music Therapy/Therapist', 'Music, General', 'Music, Other', 'Musical Instrument Fabrication and Repair', 'Musicology and Ethnomusicology', 'Nail Technician/Specialist and Manicurist', 'Natural Resource Economics', 'Natural Resources Conservation and Research, Other', 'Natural Resources Management and Policy, General', 'Natural Resources Management and Policy, Other', 'Natural Resources and Conservation, Other', 'Natural Resources/Conservation, General', 'Natural Sciences', 'Nautical Science/Merchant Marine Officer', 'Naval Architecture and Marine Engineering', 'Near and Middle Eastern Studies', 'Neonatal-Perinatal Medicine Residency Programs', 'Nephrology Residency Programs', 'Neurobiology and Neurophysiology', 'Neurological Surgery/Neurosurgery Residency Programs', 'Neurology Residency Programs', 'Neuropathology Residency Programs', 'Neuroscience', 'Non-profit/Public/Organizational Management', 'Nuclear Engineering', 'Nuclear Engineering Technology/Technician', 'Nuclear Medical Technology/Technologist', 'Nuclear Medicine Residency Programs', 'Nuclear Radiology Residency Programs', 'Nuclear/Nuclear Power Technology/Technician', 'Nurse Anesthetist', 'Nurse Midwife/Nursing Midwifery', 'Nursing Administration (MScN, MSc, PhD)', 'Nursing Science (MSc, PhD)', 'Nursing, Other', 'Nursing/Registered Nurse (RN, ASN, BScN, MScN)', 'Nutrition Sciences', 'Obstetrics and Gynecology Residency Programs', 'Occupational Health and Industrial Hygiene', 'Occupational Medicine Residency Programs', 'Occupational Safety and Health Technology/Technician', 'Occupational Therapist Assistant', 'Occupational Therapy/Therapist', 'Occupational and Environmental Health Nursing', 'Oceanography, Chemical and Physical', 'Office Management and Supervision', 'Oncology Residency Programs', 'Oncology and Cancer Biology', 'Operations Management and Supervision', 'Operations Research', 'Ophthalmic Laboratory Technology/Technician', 'Ophthalmic and Optometric Support Services and Allied Professions, Other', 'Ophthalmology Residency Programs', 'Opticianry/Ophthalmic Dispensing Optician', 'Optics/Optical Sciences', 'Optometric Technician/Assistant', 'Optometry (OD)', 'Oral Biology and Oral Pathology (MSc, PhD)', 'Oral/Maxillofacial Surgery (Cert., MSc, PhD)', 'Organic Chemistry', 'Organizational Behaviour Studies', 'Organizational Communication, General', 'Ornamental Horticulture', 'Orthodontics/Orthodontology (Cert., MSc, PhD)', 'Orthopedics/Orthopedic Surgery Residency Programs', 'Orthotist/Prosthetist', 'Otolaryngology Residency Programs', 'Pacific Area/Pacific Rim Studies', 'Painting', 'Paleontology', 'Parasitology', 'Parks, Recreation and Leisure Facilities Management', 'Parks, Recreation and Leisure Studies', 'Parts and Warehousing Operations and Maintenance Technology/Technician', 'Parts, Warehousing and Inventory Management Operations', 'Pastoral Counselling and Specialized Ministries, Other', 'Pastoral Studies/Counselling', 'Pathology Residency Programs', 'Pathology/Experimental Pathology', 'Pathology/Pathologist Assistant', 'Peace Studies and Conflict Resolution', 'Pediatric Cardiology Residency Programs', 'Pediatric Dentistry/Pedodontics (Cert., MSc, PhD)', 'Pediatric Endocrinology Residency Programs', 'Pediatric Hemato-Oncology Residency Programs', 'Pediatric Nephrology Residency Programs', 'Pediatric Nurse/Nursing', 'Pediatric Surgery Residency Programs', 'Pediatrics Residency Programs', 'Perfusion Technology/Perfusionist', 'Periodontics/Periodon</t>
         </is>
@@ -999,12 +1022,15 @@
         </is>
       </c>
       <c r="T8" t="n">
+        <v>580402</v>
+      </c>
+      <c r="U8" t="n">
         <v>1198406</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>2</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>['no', 'yes']</t>
         </is>

--- a/examples/Canada OGD/post secondary students/profile.xlsx
+++ b/examples/Canada OGD/post secondary students/profile.xlsx
@@ -455,15 +455,20 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -476,7 +481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -539,12 +544,15 @@
         <v>296468</v>
       </c>
       <c r="U2" t="n">
-        <v>592936</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>592936</v>
+      </c>
+      <c r="W2" t="n">
         <v>2</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['1', '2']</t>
         </is>
@@ -557,7 +565,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,12 +628,15 @@
         <v>296468</v>
       </c>
       <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
         <v>9783444</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>2</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['College (include Cegep)', 'University']</t>
         </is>
@@ -638,7 +649,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -701,12 +712,15 @@
         <v>2164</v>
       </c>
       <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
         <v>4743488</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>274</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['10001000', '10020000', '11001000', '12001000', '12002000', '12003000', '12004000', '12005000', '12006000', '12007000', '12008000', '12010000', '12011000', '12012000', '12022000', '13002000', '13003000', '13004000', '13005000', '13016001', '24001001', '24002001', '24002005', '24003001', '24003002', '24003003', '24005000', '24006000', '24007000', '24008000', '24009000', '24010000', '24011000', '24012000', '24013000', '24014000', '24015000', '24016000', '24017000', '24020000', '24021000', '24022000', '24023000', '24024000', '24025000', '24026000', '24027000', '24028000', '24029000', '24030000', '24031000', '24032000', '24033000', '24034000', '24035000', '24036001', '24036002', '24036003', '24037000', '24038000', '24039000', '24040000', '24041000', '24042000', '24043000', '24044000', '24045000', '24046000', '24047000', '24048000', '24049000', '24050000', '24051000', '24052000', '24053000', '24054000', '24055000', '24056000', '24057000', '24058000', '24059000', '24060000', '24061000', '24062000', '24063000', '24064000', '24065000', '24068000', '24070000', '24071000', '24072000', '24074000', '24076000', '24077000', '24080000', '24081000', '24082000', '24083000', '24087000', '24089000', '24090000', '24092000', '24093000', '24094000', '24127000', '24128000', '24136000', '24137001', '24137002', '24143000', '24160000', '24400000', '24410000', '24659000', '24700000', '24715000', '24716000', '24717000', '24718000', '24719000', '24720000', '24721000', '24722000', '24723000', '24724000', '24725000', '35001001', '35001002', '35001004', '35002001', '35003001', '35004001', '35004002', '35004003', '35004005', '35005001', '35005003', '35006001', '35006002', '35006003', '35006007', '35007001', '35007002', '35007003', '35007004', '35008001', '35008002', '35008003', '35010001', '35010002', '35011001', '35011002', '35014001', '35015001', '35015002', '35015003', '35015014', '35016001', '35016002', '35017001', '35017002', '35017004', '35017006', '35017007', '35017008', '35018001', '35018002', '35018003', '35018004', '35019001', '35019002', '35019003', '35019004', '35020001', '35021001', '35022001', '35023001', '35024001', '35045001', '35046000', '35048000', '35054000', '35055000', '35058000', '35059000', '35062000', '35064000', '35065000', '35066000', '35067000', '35068000', '35073000', '35089002', '35089003', '46001000', '46002000', '46003000', '46005001', '46005002', '46005003', '46006000', '46009000', '46010000', '46016000', '46017000', '46018000', '46021000', '46023000', '47004000', '47005001', '47005002', '47005003', '47005004', '47005005', '47005007', '47005008', '47015000', '47017000', '47018000', '47020000', '47021000', '47025000', '47026000', '47030000', '48001001', '48002000', '48005000', '48007000', '48008000', '48009000', '48013000', '48014000', '48015000', '48016000', '48022000', '48023000', '48024000', '48026000', '48027000', '48028000', '48031000', '48032000', '48033000', '48034000', '48035000', '48146000', '48147000', '48148000', '59001001', '59001005', '59002000', '59005000', '59007000', '59023000', '59026000', '59027000', '59031000', '59032000', '59033000', '59034000', '59035000', '59036000', '59038000', '59043000', '59045000', '59048001', '59048004', '59049000', '59050000', '59051000', '59052000', '59053000', '59054000', '60001000']</t>
         </is>
@@ -719,7 +733,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -782,12 +796,15 @@
         <v>2164</v>
       </c>
       <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
         <v>22014372</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>274</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['Acadia University - Parent Institution', 'Alberta College of Art and Design', 'Algoma University', 'Algoma University College', 'Algonquin College of Applied Arts and Technology', 'Ambrose University College', 'Assiniboine Community College', 'Athabasca University', 'Atlantic School of Theology', "Bishop's University", 'Bow Valley College', 'Brandon University', 'Brescia College', 'British Columbia Institute of Technology', 'Brock College of Education', 'Brock University', 'Brock University - Hamilton Campus', 'CZgep rZgional de Lanaudire ^ LOAssomption', 'CZgep rZgional de Lanaudire ^ Terrebonne', 'Camosun College', 'Campus Notre-Dame-de-Foy', 'Canadian Mennonite University - Parent Institution', 'Canadian University College', 'Canadore College of Applied Arts and Technology', 'Cape Breton University', 'Capilano University', 'Carleton University', 'Carlton Trail Regional College', 'Centennial College of Applied Arts and Technology', 'Champlain Regional College - Lennoxville Campus', 'Champlain Regional College - St. Lambert Campus', 'Champlain Regional College - St. Lawrence Campus', "CitZ CollZgiale - Campus d'Ottawa", 'CollZgial international Sainte-Anne', 'College international Marie de France', 'College of New Caledonia', 'College of the North Atlantic - Parent Institution', 'College of the Rockies', 'Collge AndrZ-Grasset', 'Collge Bart', 'Collge Centennial / Centennial College', 'Collge Ellis, campus de Drummondville', 'Collge Ellis, campus de Trois-Rivires', 'Collge Heritage / Heritage College', 'Collge Jean-de-BrZbeuf', 'Collge Laflche', 'Collge Nouvelles Frontires', "Collge O'Sullivan de QuZbec / O'Sullivan College of Quebec", 'Collge Shawinigan', 'Collge Stanislas', 'Collge Vanier / Vanier College', "Collge d'Alma", "Collge d'enseignement gZnZral et professionnel (CfGEP) Ahuntsic", "Collge d'enseignement gZnZral et professionnel (CfGEP) AndrZ-Laurendeau", "Collge d'enseignement gZnZral et professionnel (CfGEP) Beauce-Appalaches", "Collge d'enseignement gZnZral et professionnel (CfGEP) Franois-Xavier Garneau", "Collge d'enseignement gZnZral et professionnel (CfGEP) GZrald-Godin", "Collge d'enseignement gZnZral et professionnel (CfGEP) Lionel-Groulx", "Collge d'enseignement gZnZral et professionnel (CfGEP) Marie-Victorin", "Collge d'enseignement gZnZral et professionnel (CfGEP) Montmorency", "Collge d'enseignement gZnZral et professionnel (CfGEP) Saint-Jean-sur-Richelieu", "Collge d'enseignement gZnZral et professionnel (CfGEP) d'Abitibi-TZmiscamingue", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Baie-Comeau", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Bois-de-Boulogne", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Chicoutimi", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Drummondville", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Granby-Haute-Yamaska", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Jonquire", "Collge d'enseignement gZnZral et professionnel (CfGEP) de LZvis-Lauzon", "Collge d'enseignement gZnZral et professionnel (CfGEP) de La Pocatire", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Limoilou", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Maisonneuve", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Matane", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Rimouski", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Rivire-du-Loup", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Rosemont", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Saint-Hyacinthe", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Saint-JZr(tm)me", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Saint-Laurent", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sainte-Foy", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sept-eles", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sherbrooke", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Sorel-Tracy", "Collge d'enseignement gZnZral et professionnel (CfGEP) de St-FZlicien", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Thetford", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Trois-Rivires", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Valleyfield", "Collge d'enseignement gZnZral et professionnel (CfGEP) de Victoriaville", "Collge d'enseignement gZnZral et professionnel (CfGEP) de l'Outaouais", "Collge d'enseignement gZnZral et professionnel (CfGEP) de la GaspZsie et des eles", "Collge d'enseignement gZnZral et professionnel (CfGEP) du Vieux MontrZal", "Collge d'enseignement gZnZral et professionnel (CfGEP) fdouard-Montpetit", "Collge d'enseignement gZnZral et professionnel (CfGEP) rZgional de Lanaudire ^ Joliette", 'Collge international des Marcellines', 'Concordia University', 'Concordia University College of Alberta', 'Conrad Grebel University College', 'Conservatoire Lasalle', 'Conservatoire de Musique de Gatineau', 'Conservatoire de musique de MontrZal', 'Conservatoire de musique de QuZbec', 'Conservatoire de musique de Rimouski', 'Conservatoire de musique de Saguenay', 'Conservatoire de musique de Trois-Rivires', "Conservatoire de musique de Val-d'Or", 'Cumberland Regional College', 'Dalhousie University', 'Dawson College', 'Dominican University College', 'Douglas College', 'Emily Carr University of Art and Design', 'Fanshawe College of Applied Arts and Technology', 'George Brown College of Applied Arts and Technology', 'Grande Prairie Regional College', 'Grant MacEwan University', 'Great Plains College', 'Horizon College and Seminary', 'Humber College of Applied Arts and Technology North Campus', 'Huron University College', 'Institut Teccart inc.', 'Institut de Technologie Agroalimentaire (La Pocatire)', 'Institut de Technologie Agroalimentaire (St-Hyacinthe)', "Institut de tourisme et d'h(tm)tellerie", 'Institut national de la recherche scientifique', 'John Abbott College', 'Keyano College', "King's College", 'Kwantlen Polytechnic University', "L'fcole Technique et Professionnelle", 'LaSalle College', 'Lakehead University', 'Lakehead University - Orillia Campus', 'Lakeland College - Parent Institution', 'Langara College', 'Laurentian University', 'Laurentian University - Off Campus Centres', 'Lethbridge College', 'Lutheran Theological Seminary', 'MacDonald College -McGill University', 'Marianopolis College', 'Maritime College of Forest Technology, Fredericton Campus', 'McGill University', 'McMaster Divinity College', 'McMaster University', 'McMaster University - Conestoga', 'McMaster University - Mohawk', 'Medicine Hat College', 'Memorial University of Newfoundland - Parent Institution', 'Merici College', 'Mohawk College of Applied Arts and Technology', 'Mount Allison University', 'Mount Royal University', 'Mount St. Vincent University', 'NSCAD University', 'National Circus School', 'Niagara College Canada', 'Nicola Valley Institute of Technology', 'Nipissing University', 'Nipissing University - Bracebridge Campus', 'Nipissing University - Brantford Campus', 'NorQuest College', 'North Island College', 'North West Regional College', 'Northern Alberta Institute of Technology', 'Northern Lakes College', 'Northern Lights Community College', 'Northern Ontario School of Medicine, East Campus', 'Northern Ontario School of Medicine, West Campus', 'Northlands College', 'Northwest Community College', 'Nova Scotia Agricultural College', 'Nova Scotia Community Colleges (NSCC) - Parent Institution', "O'Sullivan College of Montreal", 'Okanagan College', 'Olds College', 'Ontario College of Art and Design - University', 'Parkland Regional College', 'Portage College', 'Providence College and Seminary', "Queen's Theological College", "Queen's University", 'Red Deer College', 'Red River College - Parent Institution', 'Royal Roads University', 'Ryerson University', 'SZminaire de Sherbrooke', "Saint Andrew's College - University of Manitoba", "Saint Mary's University", 'Saint Paul University', "Saint Peter's College", 'Saskatchewan Institute of Applied Science and Technology (S.I.A.S.T.) - Parent Institution', 'Sault College of Applied Arts and Technology - Parent Institution', 'Selkirk College', 'Seneca College of Applied Arts and Technology', 'Sheridan College of Applied Arts and Technology', 'Simon Fraser University', 'Southeast Regional College', 'Southern Alberta Institute of Technology', 'St. Clair College of Applied Arts and Technology', 'St. Francis Xavier University - Parent Institution', "St. Jerome's University", 'St. Lawrence College of Applied Arts and Technology - Parent Institution', "St. Mary's University College", 'St. Thomas More College', 'St. Thomas University', 'Steinbach Bible College', 'TAV College', 'TZlZ-universitZ', 'Thompson Rivers University', 'Thompson Rivers University - Open Learning', 'Toronto School of Theology', 'Trent University', 'Trent University at Durham College/UOIT', "United Church St. Andrew's College", 'UniversitZ Laval', 'UniversitZ Sainte-Anne - Parent Institution', 'UniversitZ de Hearst', 'UniversitZ de Moncton - Parent Institution', 'UniversitZ de MontrZal', 'UniversitZ de Saint-Boniface', 'UniversitZ de Sherbrooke', 'UniversitZ du QuZbec ^ Chicoutimi', 'UniversitZ du QuZbec ^ MontrZal', 'UniversitZ du QuZbec ^ Rimouski', 'UniversitZ du QuZbec ^ Trois-Rivires', 'UniversitZ du QuZbec en Abitibi-TZmiscamingue', 'UniversitZ du QuZbec en Outaouais', "UniversitZ du QuZbec, fcole nationale d'administration publique - Parent Institution", 'University College of Emmanuel and St. Chad', 'University College of the North - Parent Institution', 'University of Alberta', 'University of British Columbia', 'University of British Columbia, Okanagan', 'University of Calgary', 'University of Guelph', 'University of Guelph - Humber Campus', 'University of Guelph - Kemptville College of Agricultural Technology', 'University of Guelph - Ridgetown College', "University of King's College", 'University of Lethbridge', 'University of Manitoba', 'University of New Brunswick - Parent Institution', 'University of Northern British Columbia - Parent institution', 'University of Ontario -  Institute of Technology', 'University of Ottawa', 'University of Prince Edward Island', 'University of Regina - Parent Institution', 'University of Saskatchewan', 'University of Toronto', 'University of Toronto Mississauga', 'University of Toronto Scarborough', 'University of Waterloo', 'University of Waterloo - Cambridge Campus', 'University of Waterloo - Kitchener Campus', 'University of Waterloo - Stratford Campus', 'University of Western Ontario', 'University of Windsor', 'University of Winnipeg - Parent Institution', 'University of the Fraser Valley', 'Vancouver Community College', 'Vancouver Island University', 'Waterloo Lutheran Seminary', 'Wilfrid Laurier University', 'Wilfrid Laurier University - Brantford Campus', 'Wilfrid Laurier University - Kitchener Campus', 'William and Catherine Booth Bible College', 'Winnipeg Technical College', 'York University', 'Yukon College', 'fcole Polytechnique', "fcole de Musique Vincent d'Indy", 'fcole de stZnographie judiciaire du QuZbec', 'fcole de technologie supZrieure', 'fcole des hautes Ztudes commerciales']</t>
         </is>
@@ -800,7 +817,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -863,12 +880,15 @@
         <v>548</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>4040404</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>1082</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['1', '1.0101', '1.0102', '1.0103', '1.0104', '1.0105', '1.0201', '1.0205', '1.0301', '1.0302', '1.0303', '1.0304', '1.0306', '1.0307', '1.0399', '1.0401', '1.0507', '1.0599', '1.0601', '1.0603', '1.0604', '1.0605', '1.0606', '1.0607', '1.0608', '1.0699', '1.0701', '1.0801', '1.0901', '1.0903', '1.0906', '1.0999', '1.1001', '1.1002', '1.1099', '1.1101', '1.1102', '1.1103', '1.1104', '1.1105', '1.1106', '1.1199', '1.1201', '1.1299', '1.9999', '10.0105', '10.0201', '10.0202', '10.0203', '10.0299', '10.0301', '10.0302', '10.0303', '10.0304', '10.0305', '11.0101', '11.0102', '11.0103', '11.0199', '11.0201', '11.0202', '11.0203', '11.0299', '11.0301', '11.0401', '11.0501', '11.0601', '11.0701', '11.0801', '11.0802', '11.0803', '11.0899', '11.0901', '11.1001', '11.1002', '11.1003', '11.1004', '11.1099', '11.9999', '12.0301', '12.0302', '12.0401', '12.0406', '12.0407', '12.0409', '12.041', '12.0412', '12.0499', '12.05', '12.0501', '12.0502', '12.0503', '12.0504', '12.0505', '12.0506', '12.0507', '12.0508', '12.0599', '13.0101', '13.0203', '13.0301', '13.0401', '13.0406', '13.0407', '13.0501', '13.0601', '13.0604', '13.0701', '13.0901', '13.1001', '13.1003', '13.1004', '13.1006', '13.1007', '13.1009', '13.1011', '13.1012', '13.1013', '13.1015', '13.1101', '13.1199', '13.1201', '13.1202', '13.1203', '13.1205', '13.1206', '13.1209', '13.121', '13.1299', '13.1301', '13.1302', '13.1303', '13.1304', '13.1305', '13.1306', '13.1307', '13.1308', '13.1309', '13.1311', '13.1312', '13.1314', '13.1316', '13.1317', '13.1318', '13.132', '13.1321', '13.1322', '13.1323', '13.1324', '13.1325', '13.1326', '13.1327', '13.1328', '13.1329', '13.133', '13.1332', '13.1334', '13.1335', '13.1399', '13.1401', '13.1402', '13.1499', '13.1501', '13.1502', '13.1599', '13.9999', '14.0101', '14.0201', '14.0301', '14.0501', '14.0701', '14.0801', '14.0802', '14.0803', '14.0805', '14.0901', '14.0902', '14.0903', '14.0999', '14.1001', '14.1201', '14.1301', '14.1401', '14.1801', '14.1901', '14.2001', '14.2101', '14.2201', '14.2301', '14.2501', '14.2701', '14.3101', '14.3301', '14.3401', '14.3501', '14.3601', '14.3701', '14.3801', '14.3901', '14.9999', '15', '15.0101', '15.0201', '15.0303', '15.0304', '15.0305', '15.0399', '15.0401', '15.0403', '15.0404', '15.0405', '15.0499', '15.0501', '15.0503', '15.0506', '15.0507', '15.0508', '15.0599', '15.0607', '15.0611', '15.0612', '15.0613', '15.0699', '15.0701', '15.0702', '15.0703', '15.0704', '15.0799', '15.0801', '15.0803', '15.0805', '15.0899', '15.0901', '15.0903', '15.1001', '15.1102', '15.1201', '15.1202', '15.1204', '15.1299', '15.1301', '15.1302', '15.1303', '15.1304', '15.1306', '15.1399', '15.1401', '15.1501', '15.9999', '16.0101', '16.0102', '16.0103', '16.0104', '16.0199', '16.0201', '16.03', '16.0301', '16.0302', '16.0303', '16.0399', '16.04', '16.0402', '16.0407', '16.041', '16.0501', '16.0502', '16.0599', '16.0601', '16.09', '16.0902', '16.0904', '16.0905', '16.0907', '16.0999', '16.1001', '16.1101', '16.1103', '16.12', '16.1203', '16.1601', '16.1603', '16.1701', '16.1702', '16.1799', '16.9999', '19', '19.0101', '19.0201', '19.0203', '19.0401', '19.0402', '19.0501', '19.0504', '19.0505', '19.0601', '19.0604', '19.0605', '19.0701', '19.0702', '19.0704', '19.0706', '19.0707', '19.0708', '19.0709', '19.0799', '19.0901', '19.0902', '19.0904', '19.0905', '19.0906', '19.0999', '21.0101', '22', '22.0001', '22.0101', '22.0201', '22.0204', '22.0205', '22.0206', '22.0207', '22.0208', '22.0209', '22.0211', '22.0299', '22.0301', '22.0302', '22.0303', '22.0399', '22.9999', '23.0101', '23.0401', '23.0501', '23.1001', '23.1101', '23.9999', '24.0101', '24.0102', '24.0103', '24.0199', '25.0101', '25.0301', '25.9999', '26.0101', '26.0102', '26.0202', '26.0203', '26.0204', '26.0205', '26.0206', '26.0209', '26.021', '26.0299', '26.0301', '26.0401', '26.0403', '26.0404', '26.0406', '26.0407', '26.0499', '26.0502', '26.0503', '26.0505', '26.0507', '26.0599', '26.0701', '26.0702', '26.0707', '26.0708', '26.0709', '26.0801', '26.0802', '26.0806', '26.0901', '26.0904', '26.0905', '26.0906', '26.0907', '26.0908', '26.0909', '26.091', '26.0911', '26.0999', '26.1001', '26.1004', '26.1006', '26.1007', '26.1102', '26.1103', '26.1199', '26.1201', '26.1301', '26.1302', '26.1303', '26.1304', '26.1305', '26.1306', '26.1307', '26.1309', '26.1399', '26.9999', '27.0101', '27.0199', '27.0301', '27.0303', '27.0399', '27.0501', '27.0502', '27.9999', '29.0101', '3.0101', '3.0103', '3.0104', '3.0199', '3.0201', '3.0204', '3.0205', '3.0206', '3.0299', '3.0301', '3.0501', '3.0502', '3.0506', '3.0509', '3.051', '3.0511', '3.0599', '3.0601', '3.9999', '30.0101', '30.0501', '30.0601', '30.0801', '30.1001', '30.1101', '30.1201', '30.1202', '30.1301', '30.1401', '30.1501', '30.1601', '30.1701', '30.1801', '30.1901', '30.2001', '30.2201', '30.2202', '30.2301', '30.2401', '30.2501', '30.9999', '31.0101', '31.0301', '31.0501', '31.0504', '31.0505', '31.0599', '32.0101', '32.0105', '32.0107', '32.0108', '32.0109', '32.0199', '33.0104', '34.0102', '34.0199', '35.0101', '35.0103', '36.0101', '36.0102', '36.0108', '36.011', '36.0112', '36.0113', '36.0115', '36.0118', '36.0199', '37.0101', '37.0199', '38.0101', '38.0102', '38.0103', '38.0199', '38.0201', '38.0202', '38.0203', '38.0205', '38.0206', '38.0299', '38.9999', '39.0201', '39.0301', '39.0401', '39.0501', '39.0601', '39.0602', '39.0604', '39.0699', '39.0701', '39.0702', '39.0799', '39.9999', '4.0201', '4.0301', '4.0401', '4.0601', '4.0801', '4.0901', '40.0101', '40.0201', '40.0202', '40.0203', '40.0299', '40.0401', '40.0404', '40.0499', '40.0501', '40.0502', '40.0503', '40.0504', '40.0506', '40.0508', '40.0599', '40.0601', '40.0602', '40.0603', '40.0604', '40.0605', '40.0607', '40.0699', '40.0801', '40.0807', '40.0808', '40.081', '40.0899', '40.9999', '41.0101', '41.0205', '41.0301', '41.0399', '42.0101', '42.0201', '42.0301', '42.0401', '42.0501', '42.0601', '42.0701', '42.0801', '42.0901', '42.1001', '42.1101', '42.1601', '42.1701', '42.1801', '42.2001', '42.2201', '42.2501', '42.2601', '42.9999', '43.0102', '43.0103', '43.0104', '43.0106', '43.0107', '43.0109', '43.011', '43.0112', '43.0199', '43.0201', '43.0203', '43.9999', '44', '44.0201', '44.0401', '44.0501', '44.0701', '44.0702', '44.0799', '44.9999', '45.0101', '45.0201', '45.0202', '45.0299', '45.0301', '45.0401', '45.0501', '45.0601', '45.0602', '45.0603', '45.0604', '45.0605', '45.0699', '45.0701', '45.0702', '45.0799', '45.0901', '45.1001', '45.1003', '45.1099', '45.1101', '45.1201', '45.9999', '46', '46.0101', '46.0201', '46.0301', '46.0302', '46.0303', '46.0401', '46.0403', '46.0406', '46.0412', '46.0502', '46.0503', '46.0504', '46.0599', '46.9999', '47', '47.0101', '47.0103', '47.0104', '47.0105', '47.0106', '47.011', '47.0201', '47.0302', '47.0303', '47.0399', '47.0404', '47.0408', '47.0409', '47.0501', '47.0603', '47.0604', '47.0605', '47.0606', '47.0607', '47.0608', '47.0609', '47.0611', '47.0613', '47.0616', '47.0699', '47.9999', '48.0304', '48.0501', '48.0503', '48.0506', '48.0507', '48.0508', '48.0509', '48.0599', '48.0701', '48.0702', '48.0703', '48.0799', '48.0801', '49.0101', '49.0102', '49.0104', '49.0106', '49.0202', '49.0205', '49.0206', '49.0299', '49.0304', '49.0309', '49.0399', '5.0101', '5.0102', '5.0103', '5.0104', '5.0105', '5.0106', '5.0107', '5.0108', '5.0109', '5.011', '5.0111', '5.0112', '5.0114', '5.0115', '5.0119', '5.0122', '5.0123', '5.0124', '5.0125', '5.0126', '5.0127', '5.013', '5.0132', '5.0199', '5.0202', '5.0203', '5.0207', '5.0299', '5.9999', '50.0101', '50.0201', '50.0301', '50.0401', '50.0402', '50.0404', '50.0406', '50.0407', '50.0408', '50.0409', '50.041', '50.0499', '50.0501', '50.0502', '50.0504', '50.0505', '50.0506', '50.0507', '50.0508', '50.0599', '50.0601', '50.0602', '50.0605', '50.0699', '50.0701', '50.0702', '50.0703', '50.0704', '50.0705', '50.0706', '50.0708', '50.0709', '50.071', '50.0711', '50.0712', '50.0713', '50.0799', '50.0901', '50.0902', '50.0903', '50.0904', '50.0905', '50.0906', '50.0907', '50.0908', '50.0909', '50.091', '50.0911', '50.0912', '50.0999', '50.9999', '51', '51.0101', '51.0201', '51.0202', '51.0203', '51.0204', '51.0299', '51.0401', '51.0501', '51.0502', '51.0503', '51.0504', '51.0506', '51.0507', '51.0508', '51.0509', '51.051', '51.0511', '51.0599', '51.0601', '51.0602', '51.0603', '51.0701', '51.0702', '51.0703', '51.0705', '51.0706', '51.0707', '51.0708', '51.071', '51.0712', '51.0714', '51.0716', '51.0801', '51.0802', '51.0803', '51.0805', '51.0806', '51.0808', '51.0809', '51.081', '51.0811', '51.0812', '51.0899', '51.0901', '51.0902', '51.0903', '51.0904', '51.0905', '51.0906', '51.0907', '51.0908', '51.0909', '51.091', '51.0911', '51.0912', '51.0913', '51.0915', '51.0999', '51.1001', '51.1002', '51.1004', '51.1005', '51.1006', '51.101', '51.1099', '51.1101', '51.1102', '51.1103', '51.1104', '51.1105', '51.1199', '51.1201', '51.1401', '51.1501', '51.1502', '51.1504', '51.1505', '51.1506', '51.1508', '51.1509', '51.1599', '51.1601', '51.1602', '51.1604', '51.1605', '51.1606', '51.1607', '51.1608', '51.1609', '51.161', '51.1611', '51.1612', '51.1613', '51.1616', '51.1617', '51.1618', '51.1699', '51.1701', '51.1801', '51.1802', '51.1899', '51.2001', '51.2002', '51.2003', '51.2004', '51.2006', '51.2008', '51.2009', '51.2099', '51.2101', '51.2201', '51.2202', '51.2205', '51.2206', '51.2207', '51.2208', '51.221', '51.2211', '51.2299', '51.2301', '51.2305', '51.2306', '51.2307', '51.2308', '51.2309', '51.231', '51.2399', '51.2401', '51.2501', '51.2504', '51.2505', '51.2507', '51.2508', '51.251', '51.2599', '51.2601', '51.2602', '51.2699', '51.2706', '51.3101', '51.3102', '51.3103', '51.3201', '51.3301', '51.3399', '51.3401', '51.3499', '51.3501', '51.3602', '51.3702', '51.3704', '51.3799', '51.9999', '52.0101', '52.0201', '52.0202', '52.0203', '52.0204', '52.0205', '52.0206', '52.0207', '52.0208', '52.0209', '52.0299', '52.0301', '52.0302', '52.0303', '52.0304', '52.0305', '52.0399', '52.0401', '52.0402', '52.0407', '52.0408', '52.0409', '52.041', '52.0411', '52.0499', '52.0501', '52.0601', '52.0701', '52.0703', '52.0799', '52.0801', '52.0803', '52.0804', '52.0806', '52.0807', '52.0808', '52.0809', '52.0899', '52.0901', '52.0903', '52.0904', '52.0905', '52.0906', '52.0999', '52.1001', '52.1002', '52.1003', '52.1004', '52.1005', '52.1099', '52.1101', '52.1201', '52.1206', '52.1207', '52.1299', '52.1301', '52.1302', '52.1304', '52.1399', '52.1401', '52.1402', '52.1403', '52.1499', '52.1501', '52.1601', '52.1701', '52.1801', '52.1802', '52.1803', '52.1804', '52.1902', '52.1904', '52.1905', '52.1906', '52.1907', '52.1908', '52.1909', '52.191', '52.1999', '52.2001', '52.9999', '53.0101', '53.0102', '53.0103', '53.0105', '53.0201', '54.0101', '54.0103', '54.0104', '54.0105', '54.0107', '54.0199', '55.0101', '55.0301', '55.0401', '55.0501', '55.0601', '55.0801', '55.9999', '60.0101', '60.0199', '60.0202', '60.0203', '60.0204', '60.0205', '60.0206', '60.0207', '60.0209', '60.021', '60.0211', '60.0212', '60.0213', '60.0214', '60.0215', '60.0216', '60.0217', '60.0218', '60.022', '60.0221', '60.0222', '60.0224', '60.0225', '60.0227', '60.0228', '60.0229', '60.0231', '60.0232', '60.0233', '60.0234', '60.0235', '60.0236', '60.0237', '60.0238', '60.0239', '60.024', '60.0241', '60.0242', '60.0243', '60.0244', '60.0245', '60.0246', '60.0247', '60.0248', '60.025', '60.0251', '60.0252', '60.0253', '60.0255', '60.0256', '60.0257', '60.0258', '60.026', '60.0261', '60.0262', '60.0263', '60.0264', '60.0266', '60.0268', '60.027', '60.0299', '89.9991', '89.9992', '9.0101', '9.0102', '9.0199', '9.0401', '9.0402', '9.0404', '9.0499', '9.0701', '9.0702', '9.0799', '9.0901', '9.0902', '9.0903', '9.0904', '9.0905', '9.0999', '9.1001', '9.9999', 'TT.TTTT']</t>
         </is>
@@ -881,7 +901,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -944,12 +964,15 @@
         <v>548</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>21171432</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>1082</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['Aboriginal Education', 'Aboriginal Languages, Literatures and Linguistics', 'Aboriginal Studies', 'Aboriginal and Foreign Language Teacher Education', 'Aboriginal and Foreign Languages and Literatures, General', 'Aboriginal and Foreign Languages, Literatures and Linguistics, Other', 'Accounting', 'Accounting Technology/Technician and Bookkeeping', 'Accounting and Business/Management', 'Accounting and Computer Science', 'Accounting and Finance', 'Accounting and Related Services, Other', 'Acting', 'Actuarial Science', 'Acupuncture', 'Administrative Assistant and Secretarial Science, General', 'Adult Development and Aging', 'Adult High School/Secondary Diploma Programs', 'Adult Literacy Tutor/Instructor', 'Adult and Continuing Education and Teaching', 'Advanced General Dentistry (Cert., MSc, PhD)', 'Advanced Legal Research/Studies, General (LLM, MCL, MLI, MSL, JSD/SJD)', 'Advanced/Graduate Dentistry and Oral Sciences (Cert., MSc, PhD), Other', 'Advertising', 'Aeronautical/Aerospace Engineering Technology/Technician', 'Aeronautics/Aviation/Aerospace Science and Technology, General', 'Aerospace, Aeronautical and Astronautical Engineering', 'Aesthetician/Esthetician and Skin Care Specialist', 'African Languages, Literatures and Linguistics', 'African Studies', 'Agribusiness/Agricultural Business Operations', 'Agricultural Business and Management, General', 'Agricultural Economics', 'Agricultural Mechanics and Equipment/Machine Technology', 'Agricultural Mechanization, General', 'Agricultural Production Operations, General', 'Agricultural Production Operations, Other', 'Agricultural Teacher Education', 'Agricultural and Domestic Animal Services, Other', 'Agricultural and Extension Education Services', 'Agricultural and Food Products Processing', 'Agricultural and Horticultural Plant Breeding', 'Agricultural/Biological Engineering and Bioengineering', 'Agricultural/Farm Supplies Retailing and Wholesaling', 'Agriculture, Agriculture Operations and Related Sciences, Other', 'Agriculture, General', 'Agronomy and Crop Science', 'Aircraft Powerplant Technology/Technician', 'Airframe Mechanics and Aircraft Maintenance Technology/Technician', 'Airline Flight Attendant', 'Airline/Commercial/Professional Pilot and Flight Crew', 'Allergies and Immunology Residency Programs', 'Allied Health Diagnostic, Intervention and Treatment Professions, Other', 'Allied Health and Medical Assisting Services, Other', 'Alternative and Complementary Medical Support Services, Other', 'Alternative and Complementary Medicine and Medical Systems, Other', 'American Sign Language (ASL)', 'American/United States Studies/Civilization', 'Analytical Chemistry', 'Anatomy', 'Ancient Near Eastern and Biblical Languages, Literatures and Linguistics', 'Ancient Studies/Civilization', 'Anesthesiologist Assistant', 'Anesthesiology Residency Programs', 'Animal Behaviour and Ethology', 'Animal Health', 'Animal Physiology', 'Animal Sciences, General', 'Animal Sciences, Other', 'Animal/Livestock Husbandry and Production', 'Animation, Interactive Technology, Video Graphics and Special Effects', 'Anthropology, General', 'Anthropology, Other', 'Apparel and Accessories Marketing Operations', 'Apparel and Textile Manufacture', 'Apparel and Textile Marketing Management', 'Apparel and Textiles, General', 'Apparel and Textiles, Other', 'Appliance Installation and Repair Technology/Technician', 'Applied Economics', 'Applied Horticulture/Horticultural Business Services, Other', 'Applied Horticulture/Horticulture Operations, General', 'Applied Mathematics, General', 'Applied Mathematics, Other', 'Aquaculture', 'Aquatic Biology/Limnology', 'Arabic Language and Literature', 'Archeology', 'Architectural Drafting and Architectural CAD/CADD', 'Architectural Engineering Technology/Technician', 'Architectural History and Criticism', 'Architectural Technology/Technician', 'Architecture (BArch, BA/BSc, MArch, MA/MSc, PhD)', 'Area Studies, Other', 'Area, Ethnic, Cultural and Gender Studies, Other', 'Art (not for credit)', 'Art History, Criticism and Conservation', 'Art Teacher Education', 'Art Therapy/Therapist', 'Art/Art Studies, General', 'Artificial Intelligence and Robotics', 'Arts Management', 'Asian Studies/Civilization', 'Astronomy', 'Astronomy and Astrophysics, Other', 'Astrophysics', 'Athletic Training/Trainer', 'Atmospheric Sciences and Meteorology, General', 'Atmospheric Sciences and Meteorology, Other', 'Audiology/Audiologist and Hearing Sciences', 'Audiology/Audiologist and Speech-language Pathology/Pathologist', 'Audiovisual Communications Technologies/Technicians, Other', 'Auditing', 'Autobody/Collision and Repair Technology/Technician', 'Automobile/Automotive Mechanics Technology/Technician', 'Automotive Engineering Technology/Technician', 'Aviation/Airway Management and Operations', 'Avionics Maintenance Technology/Technician', 'Baking and Pastry Arts/Baker/Pastry Chef', 'Banking and Financial Support Services', 'Banking, Corporate, Finance and Securities Law (LLM, JSD/SJD)', 'Bartending/Bartender', 'Basic Skills, General', 'Basic Skills, Other', 'Behavioural Sciences', 'Bible/Biblical Studies', 'Biochemistry', 'Biochemistry/Biophysics and Molecular Biology, Integrated', 'Biochemistry/Biophysics and Molecular Biology, Other', 'Bioethics/Medical Ethics', 'Bioinformatics', 'Biological and Biomedical Sciences, Other', 'Biological and Physical Sciences', 'Biology Teacher Education', 'Biology Technician/Biotechnology Laboratory Technician', 'Biology/Biological Sciences, General', 'Biomathematics and Bioinformatics, Other', 'Biomedical Sciences, General', 'Biomedical Technology/Technician', 'Biomedical/Medical Engineering', 'Biophysics', 'Biopsychology', 'Biostatistics', 'Biotechnology', 'Birthing and Parenting Knowledge and Skills', 'Blood Bank Technology Specialist', 'Blood Banking Residency Programs', 'Boilermaking/Boilermaker', 'Botany/Plant Biology, General', 'Broadcast Journalism', 'Buddhist Studies', 'Building/Construction Site Management/Manager', 'Building/Home/Construction Inspection/Inspector', 'Building/Property Maintenance and Management', 'Business Administration and Management, General', 'Business Administration, Management and Operations, Other', 'Business Operations Support and Assistant Services, Other', 'Business Statistics', 'Business Teacher Education', 'Business and Personal/Financial Services Marketing Operations', 'Business and Social Skills', 'Business, Family and Consumer Sciences/Human Sciences', 'Business, Management, Marketing and Related Support Services, Other', 'Business/Commerce, General', 'Business/Corporate Communications', 'Business/Managerial Economics', 'Business/Office Automation/Technology/Data Entry', 'CAD/CADD Drafting and/or Design Technology/Technician', 'Cabinetmaking and Millwork', 'Canadian Government and Politics', 'Canadian History', 'Canadian Law/Legal Studies/Jurisprudence (LLM, MCJ, JSD/SJD)', 'Canadian Studies', 'Cardiology Residency Programs', 'Cardiopulmonary Technology/Technologist', 'Cardiovascular Science', 'Cardiovascular Technology/Technologist', 'Career Exploration/Awareness Skills', 'Caribbean Studies', 'Carpentry/Carpenter', 'Cartography', 'Catalan Language and Literature', 'Cell Biology and Anatomy', 'Cell/Cellular Biology and Anatomical Sciences, Other', 'Cell/Cellular Biology and Histology', 'Cell/Cellular and Molecular Biology', 'Central/Middle and Eastern European Studies', 'Ceramic Arts and Ceramics', 'Chemical Engineering', 'Chemical Pathology Residency Programs', 'Chemical Physics', 'Chemical Technology/Technician', 'Chemistry Teacher Education', 'Chemistry, General', 'Chemistry, Other', 'Child Care Provider/Assistant', 'Child Care and Support Services Management', 'Child Development', 'Child Neurology Residency Programs', 'Child/Pediatric Neurology Residency Programs', 'Chinese Language and Literature', 'Chinese Studies', 'Chiropractic (DC)', 'Christian Studies', 'Cinematography and Film/Video Production', 'City/Urban, Community and Regional Planning', 'Civil Drafting and Civil Engineering CAD/CADD', 'Civil Engineering Technology/Technician', 'Civil Engineering, General', 'Classical, Ancient Mediterranean and Near Eastern Studies and Archeology', 'Classics and Classical Languages, Literatures and Linguistics, General', 'Clinical Child Psychology', 'Clinical Laboratory Science/Medical Technology/Technologist', 'Clinical Nurse Specialist', 'Clinical Nutrition/Nutritionist', 'Clinical Pastoral Counselling/Patient Counselling', 'Clinical Psychology', 'Clinical and Industrial Drug Development (MSc, PhD)', 'Clinical, Hospital and Managed Care Pharmacy (MSc, PhD)', 'Clinical/Medical Laboratory Assistant', 'Clinical/Medical Laboratory Science and Allied Professions, Other', 'Clinical/Medical Laboratory Technician', 'Cognitive Psychology and Psycholinguistics', 'Cognitive Science', 'College/University Preparatory and Advanced High School/Secondary Diploma Programs', 'Colon and Rectal Surgery Residency Programs', 'Commercial Photography', 'Commercial and Advertising Art', 'Communication Disorders Sciences and Services, Other', 'Communication Disorders, General', 'Communication Studies/Speech Communication and Rhetoric', 'Communication and Media Studies, Other', 'Communication, Journalism and Related Programs, Other', 'Communications Systems Installation and Repair Technology', 'Communications Technology/Technician', 'Community College and General and Vocational College (CEGEP) Administration', 'Community Health Services/Liaison/Counselling', 'Community Health and Preventive Medicine', 'Community Involvement', 'Community Organization and Advocacy', 'Community Psychology', 'Comparative Law (LLM, MCL, JSD/SJD)', 'Comparative Literature', 'Comparative Psychology', 'Computational Mathematics', 'Computer Engineering Technologies/Technicians, Other', 'Computer Engineering Technology/Technician, General', 'Computer Engineering, General', 'Computer Engineering, Other', 'Computer Games and Programming Skills', 'Computer Graphics', 'Computer Hardware Engineering', 'Computer Installation and Repair Technology/Technician', 'Computer Programming, Other', 'Computer Programming, Specific Applications', 'Computer Programming, Vendor/Product Certification', 'Computer Programming/Programmer, General', 'Computer Science', 'Computer Software Engineering', 'Computer Software Technology/Technician', 'Computer Software and Media Applications, Other', 'Computer Systems Analysis/Analyst', 'Computer Systems Networking and Telecommunications', 'Computer Teacher Education', 'Computer Technology/Computer Systems Technology', 'Computer and Information Sciences and Support Services, General, Other', 'Computer and Information Sciences and Support Services, Other', 'Computer and Information Sciences, General', 'Computer and Information Systems Security', 'Computer/Information Technology Administration and Management, Other', 'Conducting', 'Conservation Biology', 'Construction Engineering', 'Construction Engineering Technology/Technician', 'Construction Management', 'Construction Trades, General', 'Construction Trades, Other', 'Construction/Heavy Equipment/Earthmoving Equipment Operation', 'Consumer Economics', 'Consumer Merchandising/Retailing Management', 'Cooking and Other Domestic Skills', 'Cooking and Related Culinary Arts, General', 'Corrections', 'Cosmetology and Related Personal Grooming Services, Other', 'Cosmetology/Cosmetologist, General', 'Counselling Psychology', 'Counsellor Education/School Counselling and Guidance Services', 'Court Reporting/Court Reporter', 'Crafts/Craft Design, Folk Art and Artisanry', 'Credit Management', 'Criminal Justice and Corrections, Other', 'Criminal Justice/Law Enforcement Administration', 'Criminal Justice/Police Science', 'Criminal Justice/Safety Studies', 'Criminology', 'Critical Care Anesthesiology Residency Programs', 'Critical Care Medicine Residency Programs', 'Critical Care Nursing', 'Critical Care Surgery Residency Programs', 'Crop Production', 'Culinary Arts and Related Services, Other', 'Culinary Arts/Chef Training', 'Cultural Resource Management and Policy Analysis', 'Curriculum and Instruction', 'Customer Service Management', 'Customer Service Support/Call Centre/Teleservice Operation', 'Cytogenetics/Genetics/Clinical Genetics Technology/Technologist', 'Cytotechnology/Cytotechnologist', 'Dairy Husbandry and Production', 'Dance, General', 'Data Entry/Microcomputer Applications, General', 'Data Modelling/Warehousing and Database Administration', 'Data Processing and Data Processing Technology/Technician', 'Demography and Population Studies', 'Dental Assisting/Assistant', 'Dental Clinical Sciences, General (MSc, PhD)', 'Dental Hygiene/Hygienist', 'Dental Laboratory Technology/Technician', 'Dental Public Health and Education (Cert., MSc, MPH, PhD, DPH)', 'Dental Residency Programs, Other', 'Dental/Oral Surgery Specialty Residency Programs', 'Dentistry (DDS, DMD)', 'Dermatology Residency Programs', 'Dermatopathology Residency Programs', 'Design and Applied Arts, Other', 'Design and Visual Communications, General', 'Development Economics and International Development', 'Developmental Biology and Embryology', 'Developmental and Child Psychology', 'Diagnostic Medical Sonography/Sonographer and Ultrasound Technician', 'Diagnostic Radiology Residency Programs', 'Diesel Mechanics Technology/Technician', 'Dietetic Technician (DTR)', 'Dietetics/Dietitian (RD)', 'Digital Communication and Media/Multimedia', 'Direct Entry Midwifery (LM, CPM)', 'Directing and Theatrical Production', 'Diver, Professional and Instructor', 'Divinity/Ministry (BDiv, MDiv)', 'Drafting and Design Technology/Technician, General', 'Drafting/Design Engineering Technologies/Technicians, Other', 'Drama and Dance Teacher Education', 'Drama and Dramatics/Theatre Arts, General', 'Drama/Theatre Arts and Stagecraft, Other', 'Drawing', 'Driver and Safety Teacher Education', 'E-commerce/Electronic Commerce', 'Early Childhood Education and Teaching', 'East Asian Languages, Literatures and Linguistics, General', 'East Asian Languages, Literatures and Linguistics, Other', 'East Asian Studies', 'Ecology', 'Ecology, Evolution, Systematics and Population Biology, Other', 'Econometrics and Quantitative Economics', 'Economics, General', 'Economics, Other', 'Education, General', 'Education, Other', 'Education/Teaching of Individuals in Early Childhood Special Education Programs', 'Education/Teaching of Individuals with Autism', 'Education/Teaching of Individuals with Hearing Impairments Including Deafness', 'Education/Teaching of Individuals with Multiple Disabilities', 'Education/Teaching of Individuals with Specific Learning Disabilities', 'Education/Teaching of Individuals with Speech or Language Impairments', 'Education/Teaching of Individuals with Vision Impairments Including Blindness', 'Education/Teaching of Intellectually-impaired Individuals', 'Education/Teaching of the Gifted and Talented', 'Educational Assessment, Testing and Measurement', 'Educational Evaluation and Research', 'Educational Leadership and Administration, General', 'Educational Psychology', 'Educational/Instructional Media Design', 'Electrical and Electronic Engineering Technologies/Technicians, Other', 'Electrical and Power Transmission Installation/Installer, General', 'Electrical, Electronic and Communications Engineering Technology/Technician', 'Electrical, Electronics and Communications Engineering', 'Electrical/Electronics Equipment Installation and Repair, General', 'Electrician', 'Electrocardiograph Technology/Technician', 'Electromechanical Technology/Electromechanical Engineering Technology', 'Electromechanical and Instrumentation and Maintenance Technologies/Technicians, Other', 'Electroneurodiagnostic/Electroencephalographic Technology/Technologist', 'Elementary Education and Teaching', 'Emergency Care Attendant (EMT Ambulance)', 'Emergency Medical Technology/Technician (EMT Paramedic)', 'Emergency Medicine Residency Programs', 'Endocrinology', 'Endocrinology and Metabolism Residency Programs', 'Endodontics/Endodontology (Cert., MSc, PhD)', 'Energy Management and Systems Technology/Technician', 'Energy, Environment and Natural Resources Law (LLM, MSc, JSD/SJD)', 'Energy-based and Biologically-based Therapies, Other', 'Engineering Physics', 'Engineering Science', 'Engineering Technologies/Technicians, Other', 'Engineering Technology, General', 'Engineering, General', 'Engineering, Other', 'Engineering/Industrial Management', 'English Composition', 'English Creative Writing', 'English Language and Literature, General', 'English Language and Literature/Letters, Other', 'English Speech and Rhetorical Studies', 'English Technical and Business Writing', 'English as a Second Language', 'English/English Language Arts Teacher Education', 'Entomology', 'Entrepreneurial and Small Business Operations, Other', 'Entrepreneurship/Entrepreneurial Studies', 'Environmental Biology', 'Environmental Control Technologies/Technicians, Other', 'Environmental Design/Architecture', 'Environmental Engineering Technology/Environmental Technology', 'Environmental Health', 'Environmental Science', 'Environmental Studies', 'Environmental Toxicology', 'Environmental/Environmental Health Engineering', 'Epidemiology', 'Equestrian/Equine Studies', 'Ethics', 'Ethnic, Cultural Minority and Gender Studies, Other', 'European History', 'European Studies/Civilization', 'Evolutionary Biology', 'Executive Assistant/Executive Secretary', 'Exercise Physiology', 'Experimental Psychology', 'Facilities Planning and Management', 'Family Medicine Residency Programs', 'Family Practice Nurse/Nurse Practitioner', 'Family Psychology', 'Family Resource Management Studies, General', 'Family Systems', 'Family and Community Services', 'Family and Consumer Sciences/Home Economics Teacher Education', 'Family and Consumer Sciences/Human Sciences, General', 'Farm/Farm and Ranch Management', 'Fashion Merchandising', 'Fashion and Fabric Consultant', 'Fashion/Apparel Design', 'Fibre, Textile and Weaving Arts', 'Film/Cinema Studies', 'Film/Video and Photographic Arts, Other', 'Finance and Financial Management Services, Other', 'Finance, General', 'Financial Planning and Services', 'Fine Arts and Art Studies, Other', 'Fine/Studio Arts, General', 'Fire Protection and Safety Technology/Technician', 'Fire Science/Firefighting', 'Fishing and Fisheries Sciences and Management', 'Floriculture/Floristry Operations and Management', 'Food Preparation/Professional Cooking/Kitchen Assistant', 'Food Science', 'Food Science and Technology, Other', 'Food Service, Waiter/Waitress and Dining Room Management/Manager', 'Food Technology and Processing', 'Foods, Nutrition and Wellness Studies, General', 'Foodservice Systems Administration/Management', 'Forensic Psychology', 'Forensic Science and Technology', 'Forest Engineering', 'Forest Management/Forest Resources Management', 'Forest Resources Production and Management', 'Forest Sciences and Biology', 'Forest Technology/Technician', 'Forestry, General', 'Forestry, Other', 'French Canadian Literature', 'French Composition', 'French Creative Writing', 'French Language and Literature, General', 'French Language and Literature/Letters, Other', 'French Language/French Language Arts Teacher Education', 'French Literature (France and the French Community)', 'French Studies', 'French Technical and Business Writing', 'French as a Second Language', 'Funeral Direction/Service', 'Funeral Service and Mortuary Science, General', 'Furniture Design and Manufacturing', 'Gastroenterology Residency Programs', 'General Office Occupations and Clerical Services', 'General Studies', 'General Surgery Residency Programs', 'Genetic Counselling/Counsellor', 'Genetics, General', 'Geochemistry', 'Geography', 'Geography Teacher Education', 'Geography and Cartography, Other', 'Geological and Earth Sciences/Geosciences, Other', 'Geological/Geophysical Engineering', 'Geology/Earth Science, General', 'Geophysics and Seismology', 'Geotechnical Engineering', 'Geriatric Medicine (Internal Medicine) Residency Programs', 'Geriatric Medicine Residency Programs', 'German Language Teacher Education', 'German Language and Literature', 'German Studies', 'Germanic Languages, Literatures and Linguistics, Other', 'Gerontology', 'Geropsychology', 'Glazier', 'Graphic Communications, General', 'Graphic Design', 'Graphic and Printing Equipment Operator, General Production', 'Greenhouse Operations and Management', 'Ground Transportation, Other', 'Hair Styling/Stylist and Hair Design', 'Handicrafts and Model-making', 'Hazardous Materials Information Systems Technology/Technician', 'Hazardous Materials Management and Waste Technology/Technician', 'Health Aide', 'Health Aides/Attendants/Orderlies, Other', 'Health Communication', 'Health Information/Medical Records Administration/Administrator', 'Health Information/Medical Records Technology/Technician', 'Health Law (LLM, MJ, JSD/SJD)', 'Health Occupations Teacher Education', 'Health Professions and Related Clinical Sciences, Other', 'Health Services Administration', 'Health Services/Allied Health/Health Sciences, General', 'Health Teacher Education', 'Health Unit Coordinator/Ward Clerk', 'Health and Physical Education, General', 'Health and Physical Education/Fitness, Other', 'Health-related Knowledge and Skills, Other', 'Health/Health Care Administration/Management', 'Health/Medical Physics', 'Health/Medical Preparatory Programs, Other', 'Heating, Air Conditioning and Refrigeration Technology/Technician (ACH/ACR/ACHR/HRAC/HVAC/AC Technology)', 'Heating, Air Conditioning, Ventilation and Refrigeration Maintenance Technology/Technician (HAC, HACR, HVAC, HVACR)', 'Heavy Equipment Maintenance Technology/Technician', 'Heavy/Industrial Equipment Maintenance Technologies, Other', 'Hematological Pathology Residency Programs', 'Hematology Residency Programs', 'Herbalism/Herbalist', 'High School Equivalence Certificate Programs', 'Higher Education/Higher Education Administration', 'Hispanic American, Puerto Rican and Mexican American/Chicano Studies', 'Historic Preservation and Conservation, General', 'History Teacher Education', 'History and Philosophy of Science and Technology', 'History, General', 'History, Other', 'Home Furnishings and Equipment Installers', 'Home Health Aide/Home Attendant', 'Horse Husbandry/Equine Science and Management', 'Horticultural Science', 'Hospital and Health Care Facilities Administration/Management', 'Hospitality Administration/Management, General', 'Hospitality Administration/Management, Other', 'Hospitality and Recreation Marketing Operations', 'Hotel/Motel Administration/Management', 'Housing and Human Environments, General', 'Human Development and Family Studies, General', 'Human Development, Family Studies and Related Services, Other', 'Human Nutrition', 'Human Resources Development', 'Human Resources Management and Services, Other', 'Human Resources Management/Personnel Administration, General', 'Human Services, General', 'Human/Medical Genetics', 'Humanities/Humanistic Studies', 'Hydrology and Water Resources Science', 'Illustration', 'Immunology', 'Industrial Design', 'Industrial Electronics Technology/Technician', 'Industrial Engineering', 'Industrial Mechanics and Maintenance Technology', 'Industrial Production Technologies/Technicians, Other', 'Industrial Safety Technology/Technician', 'Industrial Technology/Technician', 'Industrial and Organizational Psychology', 'Industrial and Physical Pharmacy and Cosmetic Sciences (MSc, PhD)', 'Infectious Disease Residency Programs', 'Information Resources Management/Chief Information Officer (CIO) Training', 'Information Science/Studies', 'Information Technology', 'Inorganic Chemistry', 'Institutional Food Workers', 'Instructional program not applicable', 'Instructional program not reported', 'Instrumentation Technology/Technician', 'Insurance', 'Intercultural/Multicultural and Diversity Studies', 'Interior Design', 'Intermedia/Multimedia', 'Internal Medicine Residency Programs', 'International Agriculture', 'International Business/Trade/Commerce', 'International Economics', 'International Finance', 'International Law and Legal Studies (LLM, JSD/SJD)', 'International Marketing', 'International Public Health/International Health', 'International Relations and Affairs', 'International and Comparative Education', 'International/Global Studies', 'Interpersonal and Social Skills, General', 'Investments and Securities', 'Ironworking/Ironworker', 'Islamic Studies', 'Italian Language and Literature', 'Italian Studies', 'Japanese Language and Literature', 'Japanese Studies', 'Jazz/Jazz Studies', 'Jewish/Judaic Studies', 'Job-seeking/Changing Skills', 'Journalism, General', 'Journalism, Other', 'Junior High/Intermediate/Middle School Education and Teaching', 'Juvenile Corrections', 'Kindergarten/Preschool Education and Teaching', 'Kinesiology and Exercise Science', 'Knowledge Management', 'Korean Language and Literature', 'Laboratory Medicine Residency Programs', 'Labour Studies', 'Labour and Industrial Relations', 'Land Use Planning and Management/Development', 'Landscape Architecture (BSc, BSLA, BLA, MSLA, MLA, PhD)', 'Landscaping and Groundskeeping', 'Language Interpretation and Translation', 'Large Animal/Food Animal and Equine Surgery and Medicine (Cert., MSc, PhD)', 'Laser and Optical Technology/Technician', 'Latin American Studies', 'Latin Language and Literature', 'Law (LLB, JD, BCL)', 'Legal Administrative Assistant/Secretary', 'Legal Assistant/Paralegal', 'Legal Professions and Studies, Other', 'Legal Research and Advanced Professional Studies (Post-LLB/JD), Other', 'Legal Studies, General', 'Legal Support Services, Other', 'Leisure and Recreational Activities, General', 'Leisure and Recreational Activities, Other', 'Liberal Arts and Sciences, General Studies and Humanities, Other', 'Liberal Arts and Sciences/Liberal Studies', 'Library Assistant/Technician', 'Library Science, Other', 'Library Science/Librarianship', 'Licensed Practical/Vocational Nurse Training (LPN, LVN, Cert., Dipl., AAS)', 'Lineworker', 'Linguistic, Comparative and Related Language Studies and Services, Other', 'Linguistics', 'Literacy and Communication Skills', 'Livestock Management', 'Logic', 'Logistics and Materials Management', 'Machine Shop Technology/Assistant', 'Machine Tool Technology/Machinist', 'Makeup Artist/Specialist', 'Management Information Systems and Services, Other', 'Management Information Systems, General', 'Management Science, General', 'Management Sciences and Quantitative Methods, Other', 'Manufacturing Engineering', 'Manufacturing Technology/Technician', 'Marine Biology and Biological Oceanography', 'Marine Maintenance/Fitter and Ship Repair Technology/Technician', 'Marine Transportation, Other', 'Marketing Research', 'Marketing, Other', 'Marketing/Marketing Management, General', 'Marriage and Family Therapy/Counselling', 'Masonry/Mason', 'Mass Communication/Media Studies', 'Massage Therapy/Therapeutic Massage', 'Materials Engineering', 'Materials Science', 'Maternal/Child Health and Neonatal Nurse/Nursing', 'Mathematical Statistics and Probability', 'Mathematics Teacher Education', 'Mathematics and Computer Science', 'Mathematics and Statistics, Other', 'Mathematics, General', 'Mathematics, Other', 'Meat Cutting/Meat Cutter', 'Mechanic and Repair Technologies/Technicians, Other', 'Mechanical Drafting and Mechanical Drafting CAD/CADD', 'Mechanical Engineering', 'Mechanical Engineering Related Technologies/Technicians, Other', 'Mechanical Engineering/Mechanical Technology/Technician', 'Mechanics and Repairers, General', 'Medical Administrative/Executive Assistant and Medical Secretary', 'Medical Informatics', 'Medical Insurance Specialist/Medical Biller', 'Medical Microbiology and Bacteriology', 'Medical Office Assistant/Specialist', 'Medical Office Management/Administration', 'Medical Radiologic Technology/Science D Radiation Therapist', 'Medical Reception/Receptionist', 'Medical Residency Programs, Other', 'Medical Scientist (MSc, PhD)', 'Medical Transcription/Transcriptionist', 'Medical/Clinical Assistant', 'Medicinal and Pharmaceutical Chemistry (MSc, PhD)', 'Medicine (MD)', 'Medieval and Renaissance Studies', 'Medium/Heavy Vehicle and Truck Technology/Technician', 'Mental Health Counselling/Counsellor', 'Mental and Social Health Services and Allied Professions, Other', 'Merchandising and Buying Operations', 'Metal and Jewellery Arts', 'Metallurgical Engineering', 'Metallurgical Technology/Technician', 'Meteorology', 'Microbiological Sciences and Immunology, Other', 'Microbiology, General', 'Military Technologies', 'Mining Technology/Technician', 'Mining and Mineral Engineering', 'Missions/Missionary Studies and Missiology', 'Mobile Crane Operation/Operator', 'Modern Greek Language and Literature', 'Molecular Biochemistry', 'Molecular Biology', 'Molecular Biophysics', 'Molecular Genetics', 'Motorcycle Maintenance and Repair Technology/Technician', 'Multidisciplinary/Interdisciplinary Studies, Other', 'Museology/Museum Studies', 'Music (not for credit)', 'Music History, Literature and Theory', 'Music Management and Merchandising', 'Music Pedagogy', 'Music Performance, General', 'Music Teacher Education', 'Music Theory and Composition', 'Music Therapy/Therapist', 'Music, General', 'Music, Other', 'Musical Instrument Fabrication and Repair', 'Musicology and Ethnomusicology', 'Nail Technician/Specialist and Manicurist', 'Natural Resource Economics', 'Natural Resources Conservation and Research, Other', 'Natural Resources Management and Policy, General', 'Natural Resources Management and Policy, Other', 'Natural Resources and Conservation, Other', 'Natural Resources/Conservation, General', 'Natural Sciences', 'Nautical Science/Merchant Marine Officer', 'Naval Architecture and Marine Engineering', 'Near and Middle Eastern Studies', 'Neonatal-Perinatal Medicine Residency Programs', 'Nephrology Residency Programs', 'Neurobiology and Neurophysiology', 'Neurological Surgery/Neurosurgery Residency Programs', 'Neurology Residency Programs', 'Neuropathology Residency Programs', 'Neuroscience', 'Non-profit/Public/Organizational Management', 'Nuclear Engineering', 'Nuclear Engineering Technology/Technician', 'Nuclear Medical Technology/Technologist', 'Nuclear Medicine Residency Programs', 'Nuclear Radiology Residency Programs', 'Nuclear/Nuclear Power Technology/Technician', 'Nurse Anesthetist', 'Nurse Midwife/Nursing Midwifery', 'Nursing Administration (MScN, MSc, PhD)', 'Nursing Science (MSc, PhD)', 'Nursing, Other', 'Nursing/Registered Nurse (RN, ASN, BScN, MScN)', 'Nutrition Sciences', 'Obstetrics and Gynecology Residency Programs', 'Occupational Health and Industrial Hygiene', 'Occupational Medicine Residency Programs', 'Occupational Safety and Health Technology/Technician', 'Occupational Therapist Assistant', 'Occupational Therapy/Therapist', 'Occupational and Environmental Health Nursing', 'Oceanography, Chemical and Physical', 'Office Management and Supervision', 'Oncology Residency Programs', 'Oncology and Cancer Biology', 'Operations Management and Supervision', 'Operations Research', 'Ophthalmic Laboratory Technology/Technician', 'Ophthalmic and Optometric Support Services and Allied Professions, Other', 'Ophthalmology Residency Programs', 'Opticianry/Ophthalmic Dispensing Optician', 'Optics/Optical Sciences', 'Optometric Technician/Assistant', 'Optometry (OD)', 'Oral Biology and Oral Pathology (MSc, PhD)', 'Oral/Maxillofacial Surgery (Cert., MSc, PhD)', 'Organic Chemistry', 'Organizational Behaviour Studies', 'Organizational Communication, General', 'Ornamental Horticulture', 'Orthodontics/Orthodontology (Cert., MSc, PhD)', 'Orthopedics/Orthopedic Surgery Residency Programs', 'Orthotist/Prosthetist', 'Otolaryngology Residency Programs', 'Pacific Area/Pacific Rim Studies', 'Painting', 'Paleontology', 'Parasitology', 'Parks, Recreation and Leisure Facilities Management', 'Parks, Recreation and Leisure Studies', 'Parts and Warehousing Operations and Maintenance Technology/Technician', 'Parts, Warehousing and Inventory Management Operations', 'Pastoral Counselling and Specialized Ministries, Other', 'Pastoral Studies/Counselling', 'Pathology Residency Programs', 'Pathology/Experimental Pathology', 'Pathology/Pathologist Assistant', 'Peace Studies and Conflict Resolution', 'Pediatric Cardiology Residency Programs', 'Pediatric Dentistry/Pedodontics (Cert., MSc, PhD)', 'Pediatric Endocrinology Residency Programs', 'Pediatric Hemato-Oncology Residency Programs', 'Pediatric Nephrology Residency Programs', 'Pediatric Nurse/Nursing', 'Pediatric Surgery Residency Programs', 'Pediatrics Residency Programs', 'Perfusion Technology/Perfusionist', 'Periodontics/Periodon</t>
         </is>
@@ -962,7 +985,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1025,12 +1048,15 @@
         <v>580402</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>1198406</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>2</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['no', 'yes']</t>
         </is>
